--- a/assets/resources/TEMPLATE_DataFields_Vouchers_Fungi.xlsx
+++ b/assets/resources/TEMPLATE_DataFields_Vouchers_Fungi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dbotanicgardens.sharepoint.com/sites/BiodiversityCollections/Shared Documents/General/Forms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dbotanicgardens.sharepoint.com/sites/FieldWork/Shared Documents/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{46D17477-F485-4F6F-BC97-02ECBD1C8B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB5BC117-3007-4584-81F0-1BB361D5DAE2}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{46D17477-F485-4F6F-BC97-02ECBD1C8B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DA115B83-25A5-480C-B597-7877BDC1FA55}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1800" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>recordedby</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>YYYY_FirstInitialLastName_ProjectTitle/Site</t>
+  </si>
+  <si>
+    <t>iNaturalist ID</t>
   </si>
 </sst>
 </file>
@@ -567,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ26"/>
+  <dimension ref="A1:AK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AJ5" sqref="AJ5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,9 +611,10 @@
     <col min="31" max="31" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -713,14 +717,17 @@
       <c r="AH1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -775,63 +782,64 @@
       <c r="Z2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.25">
@@ -889,8 +897,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D1BE5CD796B69543BA7FCF39B9A430F9" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="daa319d123e9993230d80e070cf09703">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf26cdc5-6581-43e5-a643-41a56d0810f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dffeb3cc8f59f486e586fd4c50a3723d" ns2:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D1BE5CD796B69543BA7FCF39B9A430F9" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48f98be3a9b998f19577fe96e9026a80">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf26cdc5-6581-43e5-a643-41a56d0810f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="73b90b828ce3bab7196225ca911adf86" ns2:_="">
     <xsd:import namespace="bf26cdc5-6581-43e5-a643-41a56d0810f3"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -900,13 +914,13 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
@@ -928,43 +942,43 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
@@ -1072,12 +1086,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8421DEF-4AC9-4971-B328-F90C65F8D037}">
   <ds:schemaRefs>
@@ -1087,7 +1095,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EAE18A8-7D2F-4A5F-8E37-5902985667BF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFB4E40D-EAB7-4B9D-ACA8-A99E849A9F1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{723B0D33-11F7-4F74-AA58-4AA22D4BF2EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1102,13 +1119,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFB4E40D-EAB7-4B9D-ACA8-A99E849A9F1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/assets/resources/TEMPLATE_DataFields_Vouchers_Fungi.xlsx
+++ b/assets/resources/TEMPLATE_DataFields_Vouchers_Fungi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dbotanicgardens.sharepoint.com/sites/FieldWork/Shared Documents/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.levy\Denver Botanic Gardens\FieldWork - General\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{46D17477-F485-4F6F-BC97-02ECBD1C8B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DA115B83-25A5-480C-B597-7877BDC1FA55}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF43B9A-8FFE-4E44-8884-11C4098BA3E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1800" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>recordedby</t>
   </si>
@@ -93,9 +93,6 @@
     <t>taste</t>
   </si>
   <si>
-    <t>host</t>
-  </si>
-  <si>
     <t>context</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>stipe</t>
   </si>
   <si>
-    <t>tissue</t>
-  </si>
-  <si>
     <t>Primary Collector</t>
   </si>
   <si>
@@ -129,30 +123,15 @@
     <t>Identification Date</t>
   </si>
   <si>
-    <t>Y or N</t>
-  </si>
-  <si>
     <t>County Name Only</t>
   </si>
   <si>
-    <t>WGS84/NAD83/etc</t>
-  </si>
-  <si>
-    <t>vlaue for elevation in meters only</t>
-  </si>
-  <si>
-    <t>must write "feet" or "ft"</t>
-  </si>
-  <si>
     <t>associatedTaxa</t>
   </si>
   <si>
     <t>Latin binomials only|Only genus OK</t>
   </si>
   <si>
-    <t>occurrenceRemarks</t>
-  </si>
-  <si>
     <t>notes not otherwise captured</t>
   </si>
   <si>
@@ -162,15 +141,9 @@
     <t>fieldNumber</t>
   </si>
   <si>
-    <t>Other identifying number assigned to specimen in the field, at fair, or foray</t>
-  </si>
-  <si>
     <t>catalogNumber</t>
   </si>
   <si>
-    <t>barcode</t>
-  </si>
-  <si>
     <t>othercatalogNumbers</t>
   </si>
   <si>
@@ -196,13 +169,55 @@
   </si>
   <si>
     <t>iNaturalist ID</t>
+  </si>
+  <si>
+    <t>substrate</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>DBG-F-###### barcode</t>
+  </si>
+  <si>
+    <t>value for elevation in meters only</t>
+  </si>
+  <si>
+    <t>only if provided in feet, must write "feet" or "ft"</t>
+  </si>
+  <si>
+    <t>WGS84</t>
+  </si>
+  <si>
+    <t>8 digit number from iNat</t>
+  </si>
+  <si>
+    <t>Detailed description of location where specimen was collected</t>
+  </si>
+  <si>
+    <t>plants nearby</t>
+  </si>
+  <si>
+    <t>identificationQualifier</t>
+  </si>
+  <si>
+    <t>Ex: cf., aff. The determiner’s expression of uncertainty in their identification.</t>
+  </si>
+  <si>
+    <t>only if collected within municipality</t>
+  </si>
+  <si>
+    <t>Unique barcode value from field slip</t>
+  </si>
+  <si>
+    <t>Name of event, project, or foray</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +241,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2B2B2B"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -235,7 +264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -243,11 +272,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -256,8 +295,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -570,316 +618,1245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK26"/>
+  <dimension ref="A1:AL320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="43.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="70.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="M2" s="7"/>
       <c r="O2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>37</v>
+      <c r="R2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="G3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="G5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="G6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="G7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="G8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="G10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="G11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="G12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="G13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="G15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G24" s="3"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G26" s="3"/>
+      <c r="AE2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="F3" s="3"/>
+      <c r="K3" s="10"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="F4" s="3"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="F5" s="3"/>
+      <c r="K5" s="10"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="F6" s="3"/>
+      <c r="K6" s="10"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="F7" s="3"/>
+      <c r="K7" s="10"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="F8" s="3"/>
+      <c r="K8" s="10"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="F9" s="3"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="F10" s="3"/>
+      <c r="K10" s="10"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="F11" s="3"/>
+      <c r="K11" s="10"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="F12" s="3"/>
+      <c r="K12" s="10"/>
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="F13" s="3"/>
+      <c r="K13" s="10"/>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="F14" s="3"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="F15" s="3"/>
+      <c r="K15" s="10"/>
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="F16" s="3"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F17" s="3"/>
+      <c r="K17" s="10"/>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F18" s="3"/>
+      <c r="K18" s="10"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F19" s="3"/>
+      <c r="K19" s="10"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F20" s="3"/>
+      <c r="K20" s="10"/>
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F21" s="3"/>
+      <c r="K21" s="10"/>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F22" s="3"/>
+      <c r="K22" s="10"/>
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F23" s="3"/>
+      <c r="K23" s="10"/>
+      <c r="W23" s="3"/>
+    </row>
+    <row r="24" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F24" s="3"/>
+      <c r="K24" s="10"/>
+      <c r="W24" s="3"/>
+    </row>
+    <row r="25" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F25" s="3"/>
+      <c r="K25" s="10"/>
+      <c r="W25" s="3"/>
+    </row>
+    <row r="26" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F26" s="3"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="10"/>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="10"/>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="10"/>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="10"/>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K56" s="10"/>
+    </row>
+    <row r="57" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="10"/>
+    </row>
+    <row r="58" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K58" s="10"/>
+    </row>
+    <row r="59" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K59" s="10"/>
+    </row>
+    <row r="60" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K60" s="10"/>
+    </row>
+    <row r="61" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K61" s="10"/>
+    </row>
+    <row r="62" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K62" s="10"/>
+    </row>
+    <row r="63" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K63" s="10"/>
+    </row>
+    <row r="64" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="10"/>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="10"/>
+    </row>
+    <row r="66" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="10"/>
+    </row>
+    <row r="67" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K67" s="10"/>
+    </row>
+    <row r="68" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="10"/>
+    </row>
+    <row r="69" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="10"/>
+    </row>
+    <row r="70" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="10"/>
+    </row>
+    <row r="71" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K71" s="10"/>
+    </row>
+    <row r="72" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="10"/>
+    </row>
+    <row r="73" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K73" s="10"/>
+    </row>
+    <row r="74" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K74" s="10"/>
+    </row>
+    <row r="75" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K75" s="10"/>
+    </row>
+    <row r="76" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="10"/>
+    </row>
+    <row r="77" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K77" s="10"/>
+    </row>
+    <row r="78" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="10"/>
+    </row>
+    <row r="79" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K79" s="10"/>
+    </row>
+    <row r="80" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K80" s="10"/>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K81" s="10"/>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K82" s="10"/>
+    </row>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K83" s="10"/>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K84" s="10"/>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K85" s="10"/>
+    </row>
+    <row r="86" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K86" s="10"/>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K87" s="10"/>
+    </row>
+    <row r="88" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K88" s="10"/>
+    </row>
+    <row r="89" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K89" s="10"/>
+    </row>
+    <row r="90" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K90" s="10"/>
+    </row>
+    <row r="91" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K91" s="10"/>
+    </row>
+    <row r="92" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K92" s="10"/>
+    </row>
+    <row r="93" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K93" s="10"/>
+    </row>
+    <row r="94" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K94" s="10"/>
+    </row>
+    <row r="95" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K95" s="10"/>
+    </row>
+    <row r="96" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="10"/>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K97" s="10"/>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K98" s="10"/>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K99" s="10"/>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K100" s="10"/>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K101" s="10"/>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K102" s="10"/>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K103" s="10"/>
+    </row>
+    <row r="104" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K104" s="10"/>
+    </row>
+    <row r="105" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="10"/>
+    </row>
+    <row r="106" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K106" s="10"/>
+    </row>
+    <row r="107" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K107" s="10"/>
+    </row>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K108" s="10"/>
+    </row>
+    <row r="109" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K109" s="10"/>
+    </row>
+    <row r="110" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K110" s="10"/>
+    </row>
+    <row r="111" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K111" s="10"/>
+    </row>
+    <row r="112" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K112" s="10"/>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K113" s="10"/>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K114" s="10"/>
+    </row>
+    <row r="115" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K115" s="10"/>
+    </row>
+    <row r="116" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K116" s="10"/>
+    </row>
+    <row r="117" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K117" s="10"/>
+    </row>
+    <row r="118" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K118" s="10"/>
+    </row>
+    <row r="119" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K119" s="10"/>
+    </row>
+    <row r="120" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K120" s="10"/>
+    </row>
+    <row r="121" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K121" s="10"/>
+    </row>
+    <row r="122" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K122" s="10"/>
+    </row>
+    <row r="123" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K123" s="10"/>
+    </row>
+    <row r="124" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K124" s="10"/>
+    </row>
+    <row r="125" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K125" s="10"/>
+    </row>
+    <row r="126" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K126" s="10"/>
+    </row>
+    <row r="127" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K127" s="10"/>
+    </row>
+    <row r="128" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K128" s="10"/>
+    </row>
+    <row r="129" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K129" s="10"/>
+    </row>
+    <row r="130" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K130" s="10"/>
+    </row>
+    <row r="131" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K131" s="10"/>
+    </row>
+    <row r="132" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K132" s="10"/>
+    </row>
+    <row r="133" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K133" s="10"/>
+    </row>
+    <row r="134" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K134" s="10"/>
+    </row>
+    <row r="135" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K135" s="10"/>
+    </row>
+    <row r="136" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K136" s="10"/>
+    </row>
+    <row r="137" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K137" s="10"/>
+    </row>
+    <row r="138" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K138" s="10"/>
+    </row>
+    <row r="139" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K139" s="10"/>
+    </row>
+    <row r="140" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K140" s="10"/>
+    </row>
+    <row r="141" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K141" s="10"/>
+    </row>
+    <row r="142" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K142" s="10"/>
+    </row>
+    <row r="143" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K143" s="10"/>
+    </row>
+    <row r="144" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K144" s="10"/>
+    </row>
+    <row r="145" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K145" s="10"/>
+    </row>
+    <row r="146" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K146" s="10"/>
+    </row>
+    <row r="147" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K147" s="10"/>
+    </row>
+    <row r="148" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K148" s="10"/>
+    </row>
+    <row r="149" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K149" s="10"/>
+    </row>
+    <row r="150" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K150" s="10"/>
+    </row>
+    <row r="151" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K151" s="10"/>
+    </row>
+    <row r="152" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K152" s="10"/>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K153" s="10"/>
+    </row>
+    <row r="154" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K154" s="10"/>
+    </row>
+    <row r="155" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K155" s="10"/>
+    </row>
+    <row r="156" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K156" s="10"/>
+    </row>
+    <row r="157" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K157" s="10"/>
+    </row>
+    <row r="158" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K158" s="10"/>
+    </row>
+    <row r="159" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K159" s="10"/>
+    </row>
+    <row r="160" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K160" s="10"/>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K161" s="10"/>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K162" s="10"/>
+    </row>
+    <row r="163" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K163" s="10"/>
+    </row>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K164" s="10"/>
+    </row>
+    <row r="165" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K165" s="10"/>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K166" s="10"/>
+    </row>
+    <row r="167" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K167" s="10"/>
+    </row>
+    <row r="168" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K168" s="10"/>
+    </row>
+    <row r="169" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K169" s="10"/>
+    </row>
+    <row r="170" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K170" s="10"/>
+    </row>
+    <row r="171" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K171" s="10"/>
+    </row>
+    <row r="172" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K172" s="10"/>
+    </row>
+    <row r="173" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K173" s="10"/>
+    </row>
+    <row r="174" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K174" s="10"/>
+    </row>
+    <row r="175" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K175" s="10"/>
+    </row>
+    <row r="176" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K176" s="10"/>
+    </row>
+    <row r="177" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K177" s="10"/>
+    </row>
+    <row r="178" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K178" s="10"/>
+    </row>
+    <row r="179" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K179" s="10"/>
+    </row>
+    <row r="180" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K180" s="10"/>
+    </row>
+    <row r="181" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K181" s="10"/>
+    </row>
+    <row r="182" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K182" s="10"/>
+    </row>
+    <row r="183" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K183" s="10"/>
+    </row>
+    <row r="184" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K184" s="10"/>
+    </row>
+    <row r="185" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K185" s="10"/>
+    </row>
+    <row r="186" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K186" s="10"/>
+    </row>
+    <row r="187" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K187" s="10"/>
+    </row>
+    <row r="188" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K188" s="10"/>
+    </row>
+    <row r="189" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K189" s="10"/>
+    </row>
+    <row r="190" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K190" s="10"/>
+    </row>
+    <row r="191" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K191" s="10"/>
+    </row>
+    <row r="192" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K192" s="10"/>
+    </row>
+    <row r="193" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K193" s="10"/>
+    </row>
+    <row r="194" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K194" s="10"/>
+    </row>
+    <row r="195" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K195" s="10"/>
+    </row>
+    <row r="196" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K196" s="10"/>
+    </row>
+    <row r="197" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K197" s="10"/>
+    </row>
+    <row r="198" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K198" s="10"/>
+    </row>
+    <row r="199" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K199" s="10"/>
+    </row>
+    <row r="200" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K200" s="10"/>
+    </row>
+    <row r="201" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K201" s="10"/>
+    </row>
+    <row r="202" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K202" s="10"/>
+    </row>
+    <row r="203" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K203" s="10"/>
+    </row>
+    <row r="204" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K204" s="10"/>
+    </row>
+    <row r="205" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K205" s="10"/>
+    </row>
+    <row r="206" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K206" s="10"/>
+    </row>
+    <row r="207" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K207" s="10"/>
+    </row>
+    <row r="208" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K208" s="10"/>
+    </row>
+    <row r="209" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K209" s="10"/>
+    </row>
+    <row r="210" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K210" s="10"/>
+    </row>
+    <row r="211" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K211" s="10"/>
+    </row>
+    <row r="212" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K212" s="10"/>
+    </row>
+    <row r="213" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K213" s="10"/>
+    </row>
+    <row r="214" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K214" s="10"/>
+    </row>
+    <row r="215" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K215" s="10"/>
+    </row>
+    <row r="216" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K216" s="10"/>
+    </row>
+    <row r="217" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K217" s="10"/>
+    </row>
+    <row r="218" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K218" s="10"/>
+    </row>
+    <row r="219" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K219" s="10"/>
+    </row>
+    <row r="220" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K220" s="10"/>
+    </row>
+    <row r="221" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K221" s="10"/>
+    </row>
+    <row r="222" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K222" s="10"/>
+    </row>
+    <row r="223" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K223" s="10"/>
+    </row>
+    <row r="224" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K224" s="10"/>
+    </row>
+    <row r="225" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K225" s="10"/>
+    </row>
+    <row r="226" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K226" s="10"/>
+    </row>
+    <row r="227" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K227" s="10"/>
+    </row>
+    <row r="228" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K228" s="10"/>
+    </row>
+    <row r="229" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K229" s="10"/>
+    </row>
+    <row r="230" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K230" s="10"/>
+    </row>
+    <row r="231" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K231" s="10"/>
+    </row>
+    <row r="232" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K232" s="10"/>
+    </row>
+    <row r="233" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K233" s="10"/>
+    </row>
+    <row r="234" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K234" s="10"/>
+    </row>
+    <row r="235" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K235" s="10"/>
+    </row>
+    <row r="236" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K236" s="10"/>
+    </row>
+    <row r="237" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K237" s="10"/>
+    </row>
+    <row r="238" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K238" s="10"/>
+    </row>
+    <row r="239" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K239" s="10"/>
+    </row>
+    <row r="240" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K240" s="10"/>
+    </row>
+    <row r="241" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K241" s="10"/>
+    </row>
+    <row r="242" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K242" s="10"/>
+    </row>
+    <row r="243" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K243" s="10"/>
+    </row>
+    <row r="244" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K244" s="10"/>
+    </row>
+    <row r="245" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K245" s="10"/>
+    </row>
+    <row r="246" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K246" s="10"/>
+    </row>
+    <row r="247" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K247" s="10"/>
+    </row>
+    <row r="248" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K248" s="10"/>
+    </row>
+    <row r="249" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K249" s="10"/>
+    </row>
+    <row r="250" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K250" s="10"/>
+    </row>
+    <row r="251" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K251" s="10"/>
+    </row>
+    <row r="252" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K252" s="10"/>
+    </row>
+    <row r="253" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K253" s="10"/>
+    </row>
+    <row r="254" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K254" s="10"/>
+    </row>
+    <row r="255" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K255" s="10"/>
+    </row>
+    <row r="256" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K256" s="10"/>
+    </row>
+    <row r="257" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K257" s="10"/>
+    </row>
+    <row r="258" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K258" s="10"/>
+    </row>
+    <row r="259" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K259" s="10"/>
+    </row>
+    <row r="260" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K260" s="10"/>
+    </row>
+    <row r="261" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K261" s="10"/>
+    </row>
+    <row r="262" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K262" s="10"/>
+    </row>
+    <row r="263" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K263" s="10"/>
+    </row>
+    <row r="264" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K264" s="10"/>
+    </row>
+    <row r="265" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K265" s="10"/>
+    </row>
+    <row r="266" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K266" s="10"/>
+    </row>
+    <row r="267" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K267" s="10"/>
+    </row>
+    <row r="268" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K268" s="10"/>
+    </row>
+    <row r="269" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K269" s="10"/>
+    </row>
+    <row r="270" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K270" s="10"/>
+    </row>
+    <row r="271" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K271" s="10"/>
+    </row>
+    <row r="272" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K272" s="10"/>
+    </row>
+    <row r="273" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K273" s="10"/>
+    </row>
+    <row r="274" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K274" s="10"/>
+    </row>
+    <row r="275" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K275" s="10"/>
+    </row>
+    <row r="276" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K276" s="10"/>
+    </row>
+    <row r="277" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K277" s="10"/>
+    </row>
+    <row r="278" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K278" s="10"/>
+    </row>
+    <row r="279" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K279" s="10"/>
+    </row>
+    <row r="280" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K280" s="10"/>
+    </row>
+    <row r="281" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K281" s="10"/>
+    </row>
+    <row r="282" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K282" s="10"/>
+    </row>
+    <row r="283" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K283" s="10"/>
+    </row>
+    <row r="284" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K284" s="10"/>
+    </row>
+    <row r="285" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K285" s="10"/>
+    </row>
+    <row r="286" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K286" s="10"/>
+    </row>
+    <row r="287" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K287" s="10"/>
+    </row>
+    <row r="288" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K288" s="10"/>
+    </row>
+    <row r="289" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K289" s="10"/>
+    </row>
+    <row r="290" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K290" s="10"/>
+    </row>
+    <row r="291" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K291" s="10"/>
+    </row>
+    <row r="292" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K292" s="10"/>
+    </row>
+    <row r="293" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K293" s="10"/>
+    </row>
+    <row r="294" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K294" s="10"/>
+    </row>
+    <row r="295" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K295" s="10"/>
+    </row>
+    <row r="296" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K296" s="10"/>
+    </row>
+    <row r="297" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K297" s="10"/>
+    </row>
+    <row r="298" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K298" s="10"/>
+    </row>
+    <row r="299" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K299" s="10"/>
+    </row>
+    <row r="300" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K300" s="10"/>
+    </row>
+    <row r="301" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K301" s="10"/>
+    </row>
+    <row r="302" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K302" s="10"/>
+    </row>
+    <row r="303" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K303" s="10"/>
+    </row>
+    <row r="304" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K304" s="10"/>
+    </row>
+    <row r="305" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K305" s="10"/>
+    </row>
+    <row r="306" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K306" s="10"/>
+    </row>
+    <row r="307" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K307" s="10"/>
+    </row>
+    <row r="308" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K308" s="10"/>
+    </row>
+    <row r="309" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K309" s="10"/>
+    </row>
+    <row r="310" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K310" s="10"/>
+    </row>
+    <row r="311" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K311" s="10"/>
+    </row>
+    <row r="312" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K312" s="10"/>
+    </row>
+    <row r="313" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K313" s="10"/>
+    </row>
+    <row r="314" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K314" s="10"/>
+    </row>
+    <row r="315" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K315" s="10"/>
+    </row>
+    <row r="316" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K316" s="10"/>
+    </row>
+    <row r="317" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K317" s="10"/>
+    </row>
+    <row r="318" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K318" s="10"/>
+    </row>
+    <row r="319" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K319" s="10"/>
+    </row>
+    <row r="320" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K320" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -888,21 +1865,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D1BE5CD796B69543BA7FCF39B9A430F9" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48f98be3a9b998f19577fe96e9026a80">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf26cdc5-6581-43e5-a643-41a56d0810f3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="73b90b828ce3bab7196225ca911adf86" ns2:_="">
     <xsd:import namespace="bf26cdc5-6581-43e5-a643-41a56d0810f3"/>
@@ -1086,24 +2048,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8421DEF-4AC9-4971-B328-F90C65F8D037}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFB4E40D-EAB7-4B9D-ACA8-A99E849A9F1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{723B0D33-11F7-4F74-AA58-4AA22D4BF2EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1119,4 +2079,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8421DEF-4AC9-4971-B328-F90C65F8D037}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFB4E40D-EAB7-4B9D-ACA8-A99E849A9F1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/assets/resources/TEMPLATE_DataFields_Vouchers_Fungi.xlsx
+++ b/assets/resources/TEMPLATE_DataFields_Vouchers_Fungi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dbotanicgardens.sharepoint.com/sites/BiodiversityCollections/Shared Documents/General/Forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="428" documentId="13_ncr:1_{6FF43B9A-8FFE-4E44-8884-11C4098BA3E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A3EF3D8-2D7B-4D9E-A396-1C220E0C5A52}"/>
+  <xr:revisionPtr revIDLastSave="441" documentId="13_ncr:1_{6FF43B9A-8FFE-4E44-8884-11C4098BA3E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8B7A059-776F-4689-8C13-51ACB3EB1B25}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1800" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -759,8 +759,8 @@
   <dimension ref="A1:BK101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT3" sqref="AT3"/>
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X3" sqref="X3:AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,9 +790,9 @@
     <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6" style="25" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="21.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -802,8 +802,8 @@
     <col min="35" max="35" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="83.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="100.28515625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="17" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="10.140625" style="6" bestFit="1" customWidth="1"/>
@@ -907,13 +907,13 @@
         <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>84</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC1" s="22" t="s">
         <v>26</v>
@@ -1164,7 +1164,7 @@
         <v/>
       </c>
       <c r="AV3" s="8" t="str">
-        <f>IF(Z3&lt;&gt;"","Context: "&amp;Z3&amp;". ","")</f>
+        <f>IF(AB3&lt;&gt;"","Context: "&amp;AB3&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW3" s="8" t="str">
@@ -1172,7 +1172,7 @@
         <v/>
       </c>
       <c r="AX3" s="8" t="str">
-        <f>IF(AB3&lt;&gt;"","Stipe: "&amp;AB3&amp;". ","")</f>
+        <f>IF(Z3&lt;&gt;"","Stipe: "&amp;Z3&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY3" s="8" t="str">
@@ -1204,7 +1204,7 @@
         <v/>
       </c>
       <c r="BF3" s="13" t="str">
-        <f>IF(Z3&lt;&gt;"","'Context' : "&amp;"'"&amp;Z3&amp;"'","")</f>
+        <f>IF(AB3&lt;&gt;"","'Context' : "&amp;"'"&amp;AB3&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG3" s="13" t="str">
@@ -1212,7 +1212,7 @@
         <v/>
       </c>
       <c r="BH3" s="13" t="str">
-        <f>IF(AB3&lt;&gt;"","'Stipe' : "&amp;"'"&amp;AB3&amp;"'","")</f>
+        <f>IF(Z3&lt;&gt;"","'Stipe' : "&amp;"'"&amp;Z3&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI3" s="13" t="str">
@@ -1263,27 +1263,27 @@
         <v/>
       </c>
       <c r="AU4" s="7" t="str">
-        <f t="shared" ref="AU4:AU67" si="2">IF(Y4&lt;&gt;"","Pileus: "&amp;Y4&amp;". ","")</f>
+        <f>IF(Y4&lt;&gt;"","Pileus: "&amp;Y4&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV4" s="7" t="str">
-        <f t="shared" ref="AV4:AV67" si="3">IF(Z4&lt;&gt;"","Context: "&amp;Z4&amp;". ","")</f>
+        <f>IF(AB4&lt;&gt;"","Context: "&amp;AB4&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW4" s="7" t="str">
-        <f t="shared" ref="AW4:AW67" si="4">IF(AA4&lt;&gt;"","Lamellae: "&amp;AA4&amp;". ","")</f>
+        <f>IF(AA4&lt;&gt;"","Lamellae: "&amp;AA4&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX4" s="7" t="str">
-        <f t="shared" ref="AX4:AX67" si="5">IF(AB4&lt;&gt;"","Stipe: "&amp;AB4&amp;". ","")</f>
+        <f>IF(Z4&lt;&gt;"","Stipe: "&amp;Z4&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY4" s="7" t="str">
-        <f t="shared" ref="AY4:AY67" si="6">IF(AC4&lt;&gt;"","Microscopic Analysis: "&amp;AC4&amp;". ","")</f>
+        <f t="shared" ref="AY4:AY67" si="2">IF(AC4&lt;&gt;"","Microscopic Analysis: "&amp;AC4&amp;". ","")</f>
         <v/>
       </c>
       <c r="AZ4" s="6" t="str">
-        <f t="shared" ref="AZ4:AZ35" si="7">AP4&amp;AQ4&amp;AR4&amp;AS4&amp;AU4&amp;AV4&amp;AW4&amp;AX4&amp;AY4</f>
+        <f t="shared" ref="AZ4:AZ35" si="3">AP4&amp;AQ4&amp;AR4&amp;AS4&amp;AU4&amp;AV4&amp;AW4&amp;AX4&amp;AY4</f>
         <v/>
       </c>
       <c r="BA4" s="6" t="str">
@@ -1299,31 +1299,31 @@
         <v/>
       </c>
       <c r="BE4" s="6" t="str">
-        <f t="shared" ref="BE4:BE67" si="8">IF(Y4&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y4&amp;"'","")</f>
+        <f>IF(Y4&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y4&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF4" s="6" t="str">
-        <f t="shared" ref="BF4:BF67" si="9">IF(Z4&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z4&amp;"'","")</f>
+        <f>IF(AB4&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB4&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG4" s="6" t="str">
-        <f t="shared" ref="BG4:BG67" si="10">IF(AA4&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA4&amp;"'","")</f>
+        <f>IF(AA4&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA4&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH4" s="6" t="str">
-        <f t="shared" ref="BH4:BH67" si="11">IF(AB4&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB4&amp;"'","")</f>
+        <f>IF(Z4&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z4&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI4" s="6" t="str">
-        <f t="shared" ref="BI4:BI67" si="12">IF(AC4&lt;&gt;"","'Habit' : "&amp;"'"&amp;AC4&amp;"'","")</f>
+        <f t="shared" ref="BI4:BI67" si="4">IF(AC4&lt;&gt;"","'Habit' : "&amp;"'"&amp;AC4&amp;"'","")</f>
         <v/>
       </c>
       <c r="BJ4" s="6" t="str">
-        <f t="shared" ref="BJ4:BJ67" si="13">BA4&amp;BB4&amp;BC4&amp;BE4&amp;BF4&amp;BG4&amp;BH4&amp;BI4</f>
+        <f t="shared" ref="BJ4:BJ67" si="5">BA4&amp;BB4&amp;BC4&amp;BE4&amp;BF4&amp;BG4&amp;BH4&amp;BI4</f>
         <v/>
       </c>
       <c r="BK4" s="8" t="str">
-        <f t="shared" ref="BK4:BK67" si="14">SUBSTITUTE(BJ4,"''","' , '")</f>
+        <f t="shared" ref="BK4:BK67" si="6">SUBSTITUTE(BJ4,"''","' , '")</f>
         <v/>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
         <v/>
       </c>
       <c r="AU5" s="7" t="str">
+        <f>IF(Y5&lt;&gt;"","Pileus: "&amp;Y5&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV5" s="7" t="str">
+        <f>IF(AB5&lt;&gt;"","Context: "&amp;AB5&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW5" s="7" t="str">
+        <f>IF(AA5&lt;&gt;"","Lamellae: "&amp;AA5&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX5" s="7" t="str">
+        <f>IF(Z5&lt;&gt;"","Stipe: "&amp;Z5&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY5" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV5" s="7" t="str">
+      <c r="AZ5" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW5" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX5" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY5" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ5" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA5" s="6" t="str">
@@ -1400,31 +1400,31 @@
         <v/>
       </c>
       <c r="BE5" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y5&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y5&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF5" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB5&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB5&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG5" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA5&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA5&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH5" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z5&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z5&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI5" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ5" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK5" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -1465,27 +1465,27 @@
         <v/>
       </c>
       <c r="AU6" s="7" t="str">
+        <f>IF(Y6&lt;&gt;"","Pileus: "&amp;Y6&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV6" s="7" t="str">
+        <f>IF(AB6&lt;&gt;"","Context: "&amp;AB6&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW6" s="7" t="str">
+        <f>IF(AA6&lt;&gt;"","Lamellae: "&amp;AA6&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX6" s="7" t="str">
+        <f>IF(Z6&lt;&gt;"","Stipe: "&amp;Z6&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY6" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV6" s="7" t="str">
+      <c r="AZ6" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW6" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX6" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY6" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ6" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA6" s="6" t="str">
@@ -1501,31 +1501,31 @@
         <v/>
       </c>
       <c r="BE6" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y6&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y6&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF6" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB6&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB6&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG6" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA6&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA6&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH6" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z6&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z6&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI6" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ6" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK6" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -1566,27 +1566,27 @@
         <v/>
       </c>
       <c r="AU7" s="7" t="str">
+        <f>IF(Y7&lt;&gt;"","Pileus: "&amp;Y7&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV7" s="7" t="str">
+        <f>IF(AB7&lt;&gt;"","Context: "&amp;AB7&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW7" s="7" t="str">
+        <f>IF(AA7&lt;&gt;"","Lamellae: "&amp;AA7&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX7" s="7" t="str">
+        <f>IF(Z7&lt;&gt;"","Stipe: "&amp;Z7&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY7" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV7" s="7" t="str">
+      <c r="AZ7" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW7" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX7" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY7" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ7" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA7" s="6" t="str">
@@ -1602,31 +1602,31 @@
         <v/>
       </c>
       <c r="BE7" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y7&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y7&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF7" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB7&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB7&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG7" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA7&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA7&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH7" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z7&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z7&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI7" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ7" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK7" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -1667,27 +1667,27 @@
         <v/>
       </c>
       <c r="AU8" s="7" t="str">
+        <f>IF(Y8&lt;&gt;"","Pileus: "&amp;Y8&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV8" s="7" t="str">
+        <f>IF(AB8&lt;&gt;"","Context: "&amp;AB8&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW8" s="7" t="str">
+        <f>IF(AA8&lt;&gt;"","Lamellae: "&amp;AA8&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX8" s="7" t="str">
+        <f>IF(Z8&lt;&gt;"","Stipe: "&amp;Z8&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY8" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV8" s="7" t="str">
+      <c r="AZ8" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW8" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX8" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY8" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ8" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA8" s="6" t="str">
@@ -1703,31 +1703,31 @@
         <v/>
       </c>
       <c r="BE8" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y8&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y8&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF8" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB8&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB8&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG8" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA8&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA8&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH8" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z8&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z8&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI8" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ8" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK8" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -1766,27 +1766,27 @@
         <v/>
       </c>
       <c r="AU9" s="7" t="str">
+        <f>IF(Y9&lt;&gt;"","Pileus: "&amp;Y9&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV9" s="7" t="str">
+        <f>IF(AB9&lt;&gt;"","Context: "&amp;AB9&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW9" s="7" t="str">
+        <f>IF(AA9&lt;&gt;"","Lamellae: "&amp;AA9&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX9" s="7" t="str">
+        <f>IF(Z9&lt;&gt;"","Stipe: "&amp;Z9&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY9" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV9" s="7" t="str">
+      <c r="AZ9" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW9" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX9" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY9" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ9" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA9" s="6" t="str">
@@ -1802,31 +1802,31 @@
         <v/>
       </c>
       <c r="BE9" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y9&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y9&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF9" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB9&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB9&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG9" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA9&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA9&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH9" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z9&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z9&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI9" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ9" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK9" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -1867,27 +1867,27 @@
         <v/>
       </c>
       <c r="AU10" s="7" t="str">
+        <f>IF(Y10&lt;&gt;"","Pileus: "&amp;Y10&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV10" s="7" t="str">
+        <f>IF(AB10&lt;&gt;"","Context: "&amp;AB10&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW10" s="7" t="str">
+        <f>IF(AA10&lt;&gt;"","Lamellae: "&amp;AA10&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX10" s="7" t="str">
+        <f>IF(Z10&lt;&gt;"","Stipe: "&amp;Z10&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY10" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV10" s="7" t="str">
+      <c r="AZ10" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW10" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX10" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY10" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ10" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA10" s="6" t="str">
@@ -1903,31 +1903,31 @@
         <v/>
       </c>
       <c r="BE10" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y10&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y10&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF10" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB10&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB10&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG10" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA10&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA10&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH10" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z10&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z10&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI10" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ10" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK10" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -1968,27 +1968,27 @@
         <v/>
       </c>
       <c r="AU11" s="7" t="str">
+        <f>IF(Y11&lt;&gt;"","Pileus: "&amp;Y11&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV11" s="7" t="str">
+        <f>IF(AB11&lt;&gt;"","Context: "&amp;AB11&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW11" s="7" t="str">
+        <f>IF(AA11&lt;&gt;"","Lamellae: "&amp;AA11&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX11" s="7" t="str">
+        <f>IF(Z11&lt;&gt;"","Stipe: "&amp;Z11&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY11" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV11" s="7" t="str">
+      <c r="AZ11" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW11" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX11" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY11" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ11" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA11" s="6" t="str">
@@ -2004,31 +2004,31 @@
         <v/>
       </c>
       <c r="BE11" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y11&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y11&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF11" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB11&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB11&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG11" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA11&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA11&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH11" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z11&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z11&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI11" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ11" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK11" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2069,27 +2069,27 @@
         <v/>
       </c>
       <c r="AU12" s="7" t="str">
+        <f>IF(Y12&lt;&gt;"","Pileus: "&amp;Y12&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV12" s="7" t="str">
+        <f>IF(AB12&lt;&gt;"","Context: "&amp;AB12&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW12" s="7" t="str">
+        <f>IF(AA12&lt;&gt;"","Lamellae: "&amp;AA12&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX12" s="7" t="str">
+        <f>IF(Z12&lt;&gt;"","Stipe: "&amp;Z12&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY12" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV12" s="7" t="str">
+      <c r="AZ12" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW12" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX12" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY12" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ12" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA12" s="6" t="str">
@@ -2105,31 +2105,31 @@
         <v/>
       </c>
       <c r="BE12" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y12&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y12&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF12" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB12&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB12&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG12" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA12&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA12&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH12" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z12&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z12&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI12" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ12" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK12" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2170,27 +2170,27 @@
         <v/>
       </c>
       <c r="AU13" s="7" t="str">
+        <f>IF(Y13&lt;&gt;"","Pileus: "&amp;Y13&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV13" s="7" t="str">
+        <f>IF(AB13&lt;&gt;"","Context: "&amp;AB13&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW13" s="7" t="str">
+        <f>IF(AA13&lt;&gt;"","Lamellae: "&amp;AA13&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX13" s="7" t="str">
+        <f>IF(Z13&lt;&gt;"","Stipe: "&amp;Z13&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY13" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV13" s="7" t="str">
+      <c r="AZ13" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW13" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX13" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY13" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ13" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA13" s="6" t="str">
@@ -2206,31 +2206,31 @@
         <v/>
       </c>
       <c r="BE13" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y13&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y13&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF13" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB13&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB13&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG13" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA13&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA13&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH13" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z13&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z13&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI13" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ13" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK13" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2269,27 +2269,27 @@
         <v/>
       </c>
       <c r="AU14" s="7" t="str">
+        <f>IF(Y14&lt;&gt;"","Pileus: "&amp;Y14&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV14" s="7" t="str">
+        <f>IF(AB14&lt;&gt;"","Context: "&amp;AB14&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW14" s="7" t="str">
+        <f>IF(AA14&lt;&gt;"","Lamellae: "&amp;AA14&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX14" s="7" t="str">
+        <f>IF(Z14&lt;&gt;"","Stipe: "&amp;Z14&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY14" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV14" s="7" t="str">
+      <c r="AZ14" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW14" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX14" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY14" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ14" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA14" s="6" t="str">
@@ -2305,31 +2305,31 @@
         <v/>
       </c>
       <c r="BE14" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y14&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y14&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF14" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB14&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB14&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG14" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA14&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA14&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH14" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z14&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z14&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI14" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ14" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK14" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2370,27 +2370,27 @@
         <v/>
       </c>
       <c r="AU15" s="7" t="str">
+        <f>IF(Y15&lt;&gt;"","Pileus: "&amp;Y15&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV15" s="7" t="str">
+        <f>IF(AB15&lt;&gt;"","Context: "&amp;AB15&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW15" s="7" t="str">
+        <f>IF(AA15&lt;&gt;"","Lamellae: "&amp;AA15&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX15" s="7" t="str">
+        <f>IF(Z15&lt;&gt;"","Stipe: "&amp;Z15&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY15" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV15" s="7" t="str">
+      <c r="AZ15" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW15" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX15" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY15" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ15" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA15" s="6" t="str">
@@ -2406,31 +2406,31 @@
         <v/>
       </c>
       <c r="BE15" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y15&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y15&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF15" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB15&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB15&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG15" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA15&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA15&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH15" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z15&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z15&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI15" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ15" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK15" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2469,27 +2469,27 @@
         <v/>
       </c>
       <c r="AU16" s="7" t="str">
+        <f>IF(Y16&lt;&gt;"","Pileus: "&amp;Y16&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV16" s="7" t="str">
+        <f>IF(AB16&lt;&gt;"","Context: "&amp;AB16&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW16" s="7" t="str">
+        <f>IF(AA16&lt;&gt;"","Lamellae: "&amp;AA16&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX16" s="7" t="str">
+        <f>IF(Z16&lt;&gt;"","Stipe: "&amp;Z16&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV16" s="7" t="str">
+      <c r="AZ16" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW16" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX16" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY16" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ16" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA16" s="6" t="str">
@@ -2505,31 +2505,31 @@
         <v/>
       </c>
       <c r="BE16" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y16&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y16&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF16" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB16&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB16&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG16" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA16&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA16&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH16" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z16&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z16&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI16" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ16" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK16" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2570,27 +2570,27 @@
         <v/>
       </c>
       <c r="AU17" s="7" t="str">
+        <f>IF(Y17&lt;&gt;"","Pileus: "&amp;Y17&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV17" s="7" t="str">
+        <f>IF(AB17&lt;&gt;"","Context: "&amp;AB17&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW17" s="7" t="str">
+        <f>IF(AA17&lt;&gt;"","Lamellae: "&amp;AA17&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX17" s="7" t="str">
+        <f>IF(Z17&lt;&gt;"","Stipe: "&amp;Z17&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV17" s="7" t="str">
+      <c r="AZ17" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW17" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX17" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY17" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ17" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA17" s="6" t="str">
@@ -2606,31 +2606,31 @@
         <v/>
       </c>
       <c r="BE17" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y17&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y17&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF17" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB17&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB17&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG17" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA17&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA17&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH17" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z17&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z17&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI17" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ17" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK17" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2671,27 +2671,27 @@
         <v/>
       </c>
       <c r="AU18" s="7" t="str">
+        <f>IF(Y18&lt;&gt;"","Pileus: "&amp;Y18&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV18" s="7" t="str">
+        <f>IF(AB18&lt;&gt;"","Context: "&amp;AB18&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW18" s="7" t="str">
+        <f>IF(AA18&lt;&gt;"","Lamellae: "&amp;AA18&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX18" s="7" t="str">
+        <f>IF(Z18&lt;&gt;"","Stipe: "&amp;Z18&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV18" s="7" t="str">
+      <c r="AZ18" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW18" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX18" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY18" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ18" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA18" s="6" t="str">
@@ -2707,31 +2707,31 @@
         <v/>
       </c>
       <c r="BE18" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y18&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y18&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF18" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB18&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB18&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG18" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA18&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA18&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH18" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z18&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z18&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI18" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ18" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK18" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2772,27 +2772,27 @@
         <v/>
       </c>
       <c r="AU19" s="7" t="str">
+        <f>IF(Y19&lt;&gt;"","Pileus: "&amp;Y19&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV19" s="7" t="str">
+        <f>IF(AB19&lt;&gt;"","Context: "&amp;AB19&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW19" s="7" t="str">
+        <f>IF(AA19&lt;&gt;"","Lamellae: "&amp;AA19&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX19" s="7" t="str">
+        <f>IF(Z19&lt;&gt;"","Stipe: "&amp;Z19&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV19" s="7" t="str">
+      <c r="AZ19" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW19" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX19" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY19" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ19" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA19" s="6" t="str">
@@ -2808,31 +2808,31 @@
         <v/>
       </c>
       <c r="BE19" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y19&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y19&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF19" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB19&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB19&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG19" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA19&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA19&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH19" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z19&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z19&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI19" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ19" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK19" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2873,27 +2873,27 @@
         <v/>
       </c>
       <c r="AU20" s="7" t="str">
+        <f>IF(Y20&lt;&gt;"","Pileus: "&amp;Y20&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV20" s="7" t="str">
+        <f>IF(AB20&lt;&gt;"","Context: "&amp;AB20&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW20" s="7" t="str">
+        <f>IF(AA20&lt;&gt;"","Lamellae: "&amp;AA20&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX20" s="7" t="str">
+        <f>IF(Z20&lt;&gt;"","Stipe: "&amp;Z20&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV20" s="7" t="str">
+      <c r="AZ20" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW20" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX20" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY20" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ20" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA20" s="6" t="str">
@@ -2909,31 +2909,31 @@
         <v/>
       </c>
       <c r="BE20" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y20&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y20&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF20" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB20&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB20&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG20" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA20&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA20&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH20" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z20&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z20&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI20" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ20" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK20" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2974,27 +2974,27 @@
         <v/>
       </c>
       <c r="AU21" s="7" t="str">
+        <f>IF(Y21&lt;&gt;"","Pileus: "&amp;Y21&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV21" s="7" t="str">
+        <f>IF(AB21&lt;&gt;"","Context: "&amp;AB21&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW21" s="7" t="str">
+        <f>IF(AA21&lt;&gt;"","Lamellae: "&amp;AA21&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX21" s="7" t="str">
+        <f>IF(Z21&lt;&gt;"","Stipe: "&amp;Z21&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV21" s="7" t="str">
+      <c r="AZ21" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW21" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX21" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY21" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ21" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA21" s="6" t="str">
@@ -3010,31 +3010,31 @@
         <v/>
       </c>
       <c r="BE21" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y21&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y21&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF21" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB21&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB21&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG21" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA21&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA21&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH21" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z21&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z21&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI21" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ21" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK21" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3075,27 +3075,27 @@
         <v/>
       </c>
       <c r="AU22" s="7" t="str">
+        <f>IF(Y22&lt;&gt;"","Pileus: "&amp;Y22&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV22" s="7" t="str">
+        <f>IF(AB22&lt;&gt;"","Context: "&amp;AB22&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW22" s="7" t="str">
+        <f>IF(AA22&lt;&gt;"","Lamellae: "&amp;AA22&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX22" s="7" t="str">
+        <f>IF(Z22&lt;&gt;"","Stipe: "&amp;Z22&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV22" s="7" t="str">
+      <c r="AZ22" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW22" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX22" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY22" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ22" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA22" s="6" t="str">
@@ -3111,31 +3111,31 @@
         <v/>
       </c>
       <c r="BE22" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y22&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y22&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF22" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB22&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB22&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG22" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA22&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA22&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH22" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z22&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z22&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI22" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ22" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK22" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3176,27 +3176,27 @@
         <v/>
       </c>
       <c r="AU23" s="7" t="str">
+        <f>IF(Y23&lt;&gt;"","Pileus: "&amp;Y23&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV23" s="7" t="str">
+        <f>IF(AB23&lt;&gt;"","Context: "&amp;AB23&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW23" s="7" t="str">
+        <f>IF(AA23&lt;&gt;"","Lamellae: "&amp;AA23&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX23" s="7" t="str">
+        <f>IF(Z23&lt;&gt;"","Stipe: "&amp;Z23&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV23" s="7" t="str">
+      <c r="AZ23" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW23" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX23" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY23" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ23" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA23" s="6" t="str">
@@ -3212,31 +3212,31 @@
         <v/>
       </c>
       <c r="BE23" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y23&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y23&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF23" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB23&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB23&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG23" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA23&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA23&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH23" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z23&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z23&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI23" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ23" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK23" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3277,27 +3277,27 @@
         <v/>
       </c>
       <c r="AU24" s="7" t="str">
+        <f>IF(Y24&lt;&gt;"","Pileus: "&amp;Y24&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV24" s="7" t="str">
+        <f>IF(AB24&lt;&gt;"","Context: "&amp;AB24&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW24" s="7" t="str">
+        <f>IF(AA24&lt;&gt;"","Lamellae: "&amp;AA24&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX24" s="7" t="str">
+        <f>IF(Z24&lt;&gt;"","Stipe: "&amp;Z24&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV24" s="7" t="str">
+      <c r="AZ24" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW24" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX24" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY24" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ24" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA24" s="6" t="str">
@@ -3313,31 +3313,31 @@
         <v/>
       </c>
       <c r="BE24" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y24&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y24&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF24" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB24&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB24&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG24" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA24&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA24&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH24" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z24&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z24&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI24" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ24" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK24" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3378,27 +3378,27 @@
         <v/>
       </c>
       <c r="AU25" s="7" t="str">
+        <f>IF(Y25&lt;&gt;"","Pileus: "&amp;Y25&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV25" s="7" t="str">
+        <f>IF(AB25&lt;&gt;"","Context: "&amp;AB25&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW25" s="7" t="str">
+        <f>IF(AA25&lt;&gt;"","Lamellae: "&amp;AA25&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX25" s="7" t="str">
+        <f>IF(Z25&lt;&gt;"","Stipe: "&amp;Z25&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV25" s="7" t="str">
+      <c r="AZ25" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW25" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX25" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY25" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ25" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA25" s="6" t="str">
@@ -3414,31 +3414,31 @@
         <v/>
       </c>
       <c r="BE25" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y25&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y25&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF25" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB25&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB25&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG25" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA25&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA25&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH25" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z25&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z25&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI25" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ25" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK25" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3477,27 +3477,27 @@
         <v/>
       </c>
       <c r="AU26" s="7" t="str">
+        <f>IF(Y26&lt;&gt;"","Pileus: "&amp;Y26&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV26" s="7" t="str">
+        <f>IF(AB26&lt;&gt;"","Context: "&amp;AB26&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW26" s="7" t="str">
+        <f>IF(AA26&lt;&gt;"","Lamellae: "&amp;AA26&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX26" s="7" t="str">
+        <f>IF(Z26&lt;&gt;"","Stipe: "&amp;Z26&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV26" s="7" t="str">
+      <c r="AZ26" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW26" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX26" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY26" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ26" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA26" s="6" t="str">
@@ -3513,31 +3513,31 @@
         <v/>
       </c>
       <c r="BE26" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y26&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y26&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF26" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB26&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB26&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG26" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA26&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA26&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH26" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z26&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z26&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI26" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ26" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK26" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3575,27 +3575,27 @@
         <v/>
       </c>
       <c r="AU27" s="7" t="str">
+        <f>IF(Y27&lt;&gt;"","Pileus: "&amp;Y27&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV27" s="7" t="str">
+        <f>IF(AB27&lt;&gt;"","Context: "&amp;AB27&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW27" s="7" t="str">
+        <f>IF(AA27&lt;&gt;"","Lamellae: "&amp;AA27&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX27" s="7" t="str">
+        <f>IF(Z27&lt;&gt;"","Stipe: "&amp;Z27&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV27" s="7" t="str">
+      <c r="AZ27" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW27" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX27" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY27" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ27" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA27" s="6" t="str">
@@ -3611,31 +3611,31 @@
         <v/>
       </c>
       <c r="BE27" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y27&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y27&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF27" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB27&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB27&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG27" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA27&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA27&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH27" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z27&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z27&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI27" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ27" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK27" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3673,27 +3673,27 @@
         <v/>
       </c>
       <c r="AU28" s="7" t="str">
+        <f>IF(Y28&lt;&gt;"","Pileus: "&amp;Y28&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV28" s="7" t="str">
+        <f>IF(AB28&lt;&gt;"","Context: "&amp;AB28&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW28" s="7" t="str">
+        <f>IF(AA28&lt;&gt;"","Lamellae: "&amp;AA28&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX28" s="7" t="str">
+        <f>IF(Z28&lt;&gt;"","Stipe: "&amp;Z28&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV28" s="7" t="str">
+      <c r="AZ28" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW28" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX28" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY28" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ28" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA28" s="6" t="str">
@@ -3709,31 +3709,31 @@
         <v/>
       </c>
       <c r="BE28" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y28&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y28&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF28" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB28&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB28&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG28" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA28&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA28&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH28" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z28&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z28&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI28" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ28" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK28" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3771,27 +3771,27 @@
         <v/>
       </c>
       <c r="AU29" s="7" t="str">
+        <f>IF(Y29&lt;&gt;"","Pileus: "&amp;Y29&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV29" s="7" t="str">
+        <f>IF(AB29&lt;&gt;"","Context: "&amp;AB29&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW29" s="7" t="str">
+        <f>IF(AA29&lt;&gt;"","Lamellae: "&amp;AA29&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX29" s="7" t="str">
+        <f>IF(Z29&lt;&gt;"","Stipe: "&amp;Z29&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV29" s="7" t="str">
+      <c r="AZ29" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW29" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX29" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY29" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ29" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA29" s="6" t="str">
@@ -3807,31 +3807,31 @@
         <v/>
       </c>
       <c r="BE29" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y29&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y29&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF29" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB29&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB29&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG29" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA29&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA29&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH29" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z29&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z29&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI29" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ29" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK29" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3869,27 +3869,27 @@
         <v/>
       </c>
       <c r="AU30" s="7" t="str">
+        <f>IF(Y30&lt;&gt;"","Pileus: "&amp;Y30&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV30" s="7" t="str">
+        <f>IF(AB30&lt;&gt;"","Context: "&amp;AB30&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW30" s="7" t="str">
+        <f>IF(AA30&lt;&gt;"","Lamellae: "&amp;AA30&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX30" s="7" t="str">
+        <f>IF(Z30&lt;&gt;"","Stipe: "&amp;Z30&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV30" s="7" t="str">
+      <c r="AZ30" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW30" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX30" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY30" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ30" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA30" s="6" t="str">
@@ -3905,31 +3905,31 @@
         <v/>
       </c>
       <c r="BE30" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y30&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y30&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF30" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB30&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB30&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG30" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA30&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA30&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH30" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z30&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z30&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI30" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ30" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK30" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3967,27 +3967,27 @@
         <v/>
       </c>
       <c r="AU31" s="7" t="str">
+        <f>IF(Y31&lt;&gt;"","Pileus: "&amp;Y31&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV31" s="7" t="str">
+        <f>IF(AB31&lt;&gt;"","Context: "&amp;AB31&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW31" s="7" t="str">
+        <f>IF(AA31&lt;&gt;"","Lamellae: "&amp;AA31&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX31" s="7" t="str">
+        <f>IF(Z31&lt;&gt;"","Stipe: "&amp;Z31&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV31" s="7" t="str">
+      <c r="AZ31" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW31" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX31" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY31" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ31" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA31" s="6" t="str">
@@ -4003,31 +4003,31 @@
         <v/>
       </c>
       <c r="BE31" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y31&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y31&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF31" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB31&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB31&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG31" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA31&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA31&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH31" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z31&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z31&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI31" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ31" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK31" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4065,27 +4065,27 @@
         <v/>
       </c>
       <c r="AU32" s="7" t="str">
+        <f>IF(Y32&lt;&gt;"","Pileus: "&amp;Y32&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV32" s="7" t="str">
+        <f>IF(AB32&lt;&gt;"","Context: "&amp;AB32&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW32" s="7" t="str">
+        <f>IF(AA32&lt;&gt;"","Lamellae: "&amp;AA32&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX32" s="7" t="str">
+        <f>IF(Z32&lt;&gt;"","Stipe: "&amp;Z32&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV32" s="7" t="str">
+      <c r="AZ32" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW32" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX32" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY32" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ32" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA32" s="6" t="str">
@@ -4101,31 +4101,31 @@
         <v/>
       </c>
       <c r="BE32" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y32&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y32&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF32" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB32&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB32&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG32" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA32&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA32&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH32" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z32&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z32&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI32" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ32" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK32" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4163,27 +4163,27 @@
         <v/>
       </c>
       <c r="AU33" s="7" t="str">
+        <f>IF(Y33&lt;&gt;"","Pileus: "&amp;Y33&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV33" s="7" t="str">
+        <f>IF(AB33&lt;&gt;"","Context: "&amp;AB33&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW33" s="7" t="str">
+        <f>IF(AA33&lt;&gt;"","Lamellae: "&amp;AA33&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX33" s="7" t="str">
+        <f>IF(Z33&lt;&gt;"","Stipe: "&amp;Z33&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV33" s="7" t="str">
+      <c r="AZ33" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW33" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX33" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY33" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ33" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA33" s="6" t="str">
@@ -4199,31 +4199,31 @@
         <v/>
       </c>
       <c r="BE33" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y33&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y33&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF33" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB33&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB33&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG33" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA33&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA33&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH33" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z33&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z33&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI33" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ33" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK33" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4261,27 +4261,27 @@
         <v/>
       </c>
       <c r="AU34" s="7" t="str">
+        <f>IF(Y34&lt;&gt;"","Pileus: "&amp;Y34&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV34" s="7" t="str">
+        <f>IF(AB34&lt;&gt;"","Context: "&amp;AB34&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW34" s="7" t="str">
+        <f>IF(AA34&lt;&gt;"","Lamellae: "&amp;AA34&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX34" s="7" t="str">
+        <f>IF(Z34&lt;&gt;"","Stipe: "&amp;Z34&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV34" s="7" t="str">
+      <c r="AZ34" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW34" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX34" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY34" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ34" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA34" s="6" t="str">
@@ -4297,31 +4297,31 @@
         <v/>
       </c>
       <c r="BE34" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y34&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y34&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF34" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB34&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB34&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG34" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA34&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA34&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH34" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z34&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z34&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI34" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ34" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK34" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4359,27 +4359,27 @@
         <v/>
       </c>
       <c r="AU35" s="7" t="str">
+        <f>IF(Y35&lt;&gt;"","Pileus: "&amp;Y35&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV35" s="7" t="str">
+        <f>IF(AB35&lt;&gt;"","Context: "&amp;AB35&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW35" s="7" t="str">
+        <f>IF(AA35&lt;&gt;"","Lamellae: "&amp;AA35&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX35" s="7" t="str">
+        <f>IF(Z35&lt;&gt;"","Stipe: "&amp;Z35&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV35" s="7" t="str">
+      <c r="AZ35" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW35" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX35" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY35" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AZ35" s="6" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA35" s="6" t="str">
@@ -4395,31 +4395,31 @@
         <v/>
       </c>
       <c r="BE35" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y35&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y35&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF35" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB35&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB35&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG35" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA35&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA35&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH35" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z35&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z35&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI35" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ35" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK35" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4457,27 +4457,27 @@
         <v/>
       </c>
       <c r="AU36" s="7" t="str">
+        <f>IF(Y36&lt;&gt;"","Pileus: "&amp;Y36&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV36" s="7" t="str">
+        <f>IF(AB36&lt;&gt;"","Context: "&amp;AB36&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW36" s="7" t="str">
+        <f>IF(AA36&lt;&gt;"","Lamellae: "&amp;AA36&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX36" s="7" t="str">
+        <f>IF(Z36&lt;&gt;"","Stipe: "&amp;Z36&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV36" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW36" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX36" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY36" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ36" s="6" t="str">
-        <f t="shared" ref="AZ36:AZ67" si="15">AP36&amp;AQ36&amp;AR36&amp;AS36&amp;AU36&amp;AV36&amp;AW36&amp;AX36&amp;AY36</f>
+        <f t="shared" ref="AZ36:AZ67" si="7">AP36&amp;AQ36&amp;AR36&amp;AS36&amp;AU36&amp;AV36&amp;AW36&amp;AX36&amp;AY36</f>
         <v/>
       </c>
       <c r="BA36" s="6" t="str">
@@ -4493,31 +4493,31 @@
         <v/>
       </c>
       <c r="BE36" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y36&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y36&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF36" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB36&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB36&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG36" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA36&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA36&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH36" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z36&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z36&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI36" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ36" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK36" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4555,27 +4555,27 @@
         <v/>
       </c>
       <c r="AU37" s="7" t="str">
+        <f>IF(Y37&lt;&gt;"","Pileus: "&amp;Y37&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV37" s="7" t="str">
+        <f>IF(AB37&lt;&gt;"","Context: "&amp;AB37&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW37" s="7" t="str">
+        <f>IF(AA37&lt;&gt;"","Lamellae: "&amp;AA37&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX37" s="7" t="str">
+        <f>IF(Z37&lt;&gt;"","Stipe: "&amp;Z37&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV37" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW37" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX37" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY37" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ37" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA37" s="6" t="str">
@@ -4591,31 +4591,31 @@
         <v/>
       </c>
       <c r="BE37" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y37&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y37&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF37" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB37&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB37&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG37" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA37&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA37&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH37" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z37&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z37&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI37" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ37" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK37" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4653,27 +4653,27 @@
         <v/>
       </c>
       <c r="AU38" s="7" t="str">
+        <f>IF(Y38&lt;&gt;"","Pileus: "&amp;Y38&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV38" s="7" t="str">
+        <f>IF(AB38&lt;&gt;"","Context: "&amp;AB38&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW38" s="7" t="str">
+        <f>IF(AA38&lt;&gt;"","Lamellae: "&amp;AA38&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX38" s="7" t="str">
+        <f>IF(Z38&lt;&gt;"","Stipe: "&amp;Z38&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV38" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW38" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX38" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY38" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ38" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA38" s="6" t="str">
@@ -4689,31 +4689,31 @@
         <v/>
       </c>
       <c r="BE38" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y38&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y38&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF38" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB38&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB38&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG38" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA38&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA38&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH38" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z38&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z38&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI38" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ38" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK38" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4751,27 +4751,27 @@
         <v/>
       </c>
       <c r="AU39" s="7" t="str">
+        <f>IF(Y39&lt;&gt;"","Pileus: "&amp;Y39&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV39" s="7" t="str">
+        <f>IF(AB39&lt;&gt;"","Context: "&amp;AB39&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW39" s="7" t="str">
+        <f>IF(AA39&lt;&gt;"","Lamellae: "&amp;AA39&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX39" s="7" t="str">
+        <f>IF(Z39&lt;&gt;"","Stipe: "&amp;Z39&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV39" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW39" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX39" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY39" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ39" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA39" s="6" t="str">
@@ -4787,31 +4787,31 @@
         <v/>
       </c>
       <c r="BE39" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y39&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y39&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF39" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB39&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB39&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG39" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA39&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA39&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH39" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z39&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z39&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI39" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ39" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK39" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4849,27 +4849,27 @@
         <v/>
       </c>
       <c r="AU40" s="7" t="str">
+        <f>IF(Y40&lt;&gt;"","Pileus: "&amp;Y40&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV40" s="7" t="str">
+        <f>IF(AB40&lt;&gt;"","Context: "&amp;AB40&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW40" s="7" t="str">
+        <f>IF(AA40&lt;&gt;"","Lamellae: "&amp;AA40&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX40" s="7" t="str">
+        <f>IF(Z40&lt;&gt;"","Stipe: "&amp;Z40&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV40" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW40" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX40" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY40" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ40" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA40" s="6" t="str">
@@ -4885,31 +4885,31 @@
         <v/>
       </c>
       <c r="BE40" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y40&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y40&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF40" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB40&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB40&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG40" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA40&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA40&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH40" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z40&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z40&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI40" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ40" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK40" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -4947,27 +4947,27 @@
         <v/>
       </c>
       <c r="AU41" s="7" t="str">
+        <f>IF(Y41&lt;&gt;"","Pileus: "&amp;Y41&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV41" s="7" t="str">
+        <f>IF(AB41&lt;&gt;"","Context: "&amp;AB41&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW41" s="7" t="str">
+        <f>IF(AA41&lt;&gt;"","Lamellae: "&amp;AA41&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX41" s="7" t="str">
+        <f>IF(Z41&lt;&gt;"","Stipe: "&amp;Z41&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY41" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV41" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW41" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX41" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY41" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ41" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA41" s="6" t="str">
@@ -4983,31 +4983,31 @@
         <v/>
       </c>
       <c r="BE41" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y41&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y41&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF41" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB41&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB41&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG41" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA41&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA41&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH41" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z41&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z41&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI41" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ41" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK41" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5045,27 +5045,27 @@
         <v/>
       </c>
       <c r="AU42" s="7" t="str">
+        <f>IF(Y42&lt;&gt;"","Pileus: "&amp;Y42&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV42" s="7" t="str">
+        <f>IF(AB42&lt;&gt;"","Context: "&amp;AB42&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW42" s="7" t="str">
+        <f>IF(AA42&lt;&gt;"","Lamellae: "&amp;AA42&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX42" s="7" t="str">
+        <f>IF(Z42&lt;&gt;"","Stipe: "&amp;Z42&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY42" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV42" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW42" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX42" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY42" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ42" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA42" s="6" t="str">
@@ -5081,31 +5081,31 @@
         <v/>
       </c>
       <c r="BE42" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y42&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y42&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF42" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB42&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB42&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG42" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA42&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA42&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH42" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z42&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z42&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI42" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ42" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK42" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5143,27 +5143,27 @@
         <v/>
       </c>
       <c r="AU43" s="7" t="str">
+        <f>IF(Y43&lt;&gt;"","Pileus: "&amp;Y43&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV43" s="7" t="str">
+        <f>IF(AB43&lt;&gt;"","Context: "&amp;AB43&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW43" s="7" t="str">
+        <f>IF(AA43&lt;&gt;"","Lamellae: "&amp;AA43&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX43" s="7" t="str">
+        <f>IF(Z43&lt;&gt;"","Stipe: "&amp;Z43&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY43" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV43" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW43" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX43" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY43" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ43" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA43" s="6" t="str">
@@ -5179,31 +5179,31 @@
         <v/>
       </c>
       <c r="BE43" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y43&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y43&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF43" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB43&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB43&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG43" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA43&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA43&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH43" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z43&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z43&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI43" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ43" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK43" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5241,27 +5241,27 @@
         <v/>
       </c>
       <c r="AU44" s="7" t="str">
+        <f>IF(Y44&lt;&gt;"","Pileus: "&amp;Y44&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV44" s="7" t="str">
+        <f>IF(AB44&lt;&gt;"","Context: "&amp;AB44&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW44" s="7" t="str">
+        <f>IF(AA44&lt;&gt;"","Lamellae: "&amp;AA44&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX44" s="7" t="str">
+        <f>IF(Z44&lt;&gt;"","Stipe: "&amp;Z44&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY44" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV44" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW44" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX44" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY44" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ44" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA44" s="6" t="str">
@@ -5277,31 +5277,31 @@
         <v/>
       </c>
       <c r="BE44" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y44&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y44&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF44" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB44&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB44&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG44" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA44&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA44&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH44" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z44&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z44&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI44" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ44" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK44" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5339,27 +5339,27 @@
         <v/>
       </c>
       <c r="AU45" s="7" t="str">
+        <f>IF(Y45&lt;&gt;"","Pileus: "&amp;Y45&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV45" s="7" t="str">
+        <f>IF(AB45&lt;&gt;"","Context: "&amp;AB45&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW45" s="7" t="str">
+        <f>IF(AA45&lt;&gt;"","Lamellae: "&amp;AA45&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX45" s="7" t="str">
+        <f>IF(Z45&lt;&gt;"","Stipe: "&amp;Z45&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY45" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV45" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW45" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX45" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY45" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ45" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA45" s="6" t="str">
@@ -5375,31 +5375,31 @@
         <v/>
       </c>
       <c r="BE45" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y45&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y45&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF45" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB45&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB45&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG45" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA45&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA45&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH45" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z45&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z45&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI45" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ45" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK45" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5437,27 +5437,27 @@
         <v/>
       </c>
       <c r="AU46" s="7" t="str">
+        <f>IF(Y46&lt;&gt;"","Pileus: "&amp;Y46&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV46" s="7" t="str">
+        <f>IF(AB46&lt;&gt;"","Context: "&amp;AB46&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW46" s="7" t="str">
+        <f>IF(AA46&lt;&gt;"","Lamellae: "&amp;AA46&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX46" s="7" t="str">
+        <f>IF(Z46&lt;&gt;"","Stipe: "&amp;Z46&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY46" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV46" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW46" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX46" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY46" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ46" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA46" s="6" t="str">
@@ -5473,31 +5473,31 @@
         <v/>
       </c>
       <c r="BE46" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y46&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y46&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF46" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB46&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB46&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG46" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA46&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA46&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH46" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z46&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z46&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI46" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ46" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK46" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5535,27 +5535,27 @@
         <v/>
       </c>
       <c r="AU47" s="7" t="str">
+        <f>IF(Y47&lt;&gt;"","Pileus: "&amp;Y47&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV47" s="7" t="str">
+        <f>IF(AB47&lt;&gt;"","Context: "&amp;AB47&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW47" s="7" t="str">
+        <f>IF(AA47&lt;&gt;"","Lamellae: "&amp;AA47&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX47" s="7" t="str">
+        <f>IF(Z47&lt;&gt;"","Stipe: "&amp;Z47&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY47" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV47" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW47" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX47" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY47" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ47" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA47" s="6" t="str">
@@ -5571,31 +5571,31 @@
         <v/>
       </c>
       <c r="BE47" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y47&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y47&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF47" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB47&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB47&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG47" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA47&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA47&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH47" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z47&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z47&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI47" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ47" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK47" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5633,27 +5633,27 @@
         <v/>
       </c>
       <c r="AU48" s="7" t="str">
+        <f>IF(Y48&lt;&gt;"","Pileus: "&amp;Y48&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV48" s="7" t="str">
+        <f>IF(AB48&lt;&gt;"","Context: "&amp;AB48&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW48" s="7" t="str">
+        <f>IF(AA48&lt;&gt;"","Lamellae: "&amp;AA48&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX48" s="7" t="str">
+        <f>IF(Z48&lt;&gt;"","Stipe: "&amp;Z48&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY48" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV48" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW48" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX48" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY48" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ48" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA48" s="6" t="str">
@@ -5669,31 +5669,31 @@
         <v/>
       </c>
       <c r="BE48" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y48&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y48&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF48" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB48&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB48&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG48" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA48&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA48&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH48" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z48&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z48&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI48" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ48" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK48" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5731,27 +5731,27 @@
         <v/>
       </c>
       <c r="AU49" s="7" t="str">
+        <f>IF(Y49&lt;&gt;"","Pileus: "&amp;Y49&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV49" s="7" t="str">
+        <f>IF(AB49&lt;&gt;"","Context: "&amp;AB49&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW49" s="7" t="str">
+        <f>IF(AA49&lt;&gt;"","Lamellae: "&amp;AA49&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX49" s="7" t="str">
+        <f>IF(Z49&lt;&gt;"","Stipe: "&amp;Z49&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY49" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV49" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW49" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX49" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY49" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ49" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA49" s="6" t="str">
@@ -5767,31 +5767,31 @@
         <v/>
       </c>
       <c r="BE49" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y49&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y49&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF49" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB49&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB49&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG49" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA49&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA49&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH49" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z49&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z49&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI49" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ49" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK49" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5829,27 +5829,27 @@
         <v/>
       </c>
       <c r="AU50" s="7" t="str">
+        <f>IF(Y50&lt;&gt;"","Pileus: "&amp;Y50&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV50" s="7" t="str">
+        <f>IF(AB50&lt;&gt;"","Context: "&amp;AB50&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW50" s="7" t="str">
+        <f>IF(AA50&lt;&gt;"","Lamellae: "&amp;AA50&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX50" s="7" t="str">
+        <f>IF(Z50&lt;&gt;"","Stipe: "&amp;Z50&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY50" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV50" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW50" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX50" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY50" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ50" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA50" s="6" t="str">
@@ -5865,31 +5865,31 @@
         <v/>
       </c>
       <c r="BE50" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y50&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y50&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF50" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB50&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB50&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG50" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA50&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA50&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH50" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z50&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z50&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI50" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ50" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK50" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -5927,27 +5927,27 @@
         <v/>
       </c>
       <c r="AU51" s="7" t="str">
+        <f>IF(Y51&lt;&gt;"","Pileus: "&amp;Y51&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV51" s="7" t="str">
+        <f>IF(AB51&lt;&gt;"","Context: "&amp;AB51&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW51" s="7" t="str">
+        <f>IF(AA51&lt;&gt;"","Lamellae: "&amp;AA51&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX51" s="7" t="str">
+        <f>IF(Z51&lt;&gt;"","Stipe: "&amp;Z51&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY51" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV51" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW51" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX51" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY51" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ51" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA51" s="6" t="str">
@@ -5963,31 +5963,31 @@
         <v/>
       </c>
       <c r="BE51" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y51&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y51&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF51" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB51&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB51&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG51" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA51&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA51&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH51" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z51&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z51&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI51" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ51" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK51" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6025,27 +6025,27 @@
         <v/>
       </c>
       <c r="AU52" s="7" t="str">
+        <f>IF(Y52&lt;&gt;"","Pileus: "&amp;Y52&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV52" s="7" t="str">
+        <f>IF(AB52&lt;&gt;"","Context: "&amp;AB52&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW52" s="7" t="str">
+        <f>IF(AA52&lt;&gt;"","Lamellae: "&amp;AA52&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX52" s="7" t="str">
+        <f>IF(Z52&lt;&gt;"","Stipe: "&amp;Z52&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY52" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV52" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW52" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX52" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY52" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ52" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA52" s="6" t="str">
@@ -6061,31 +6061,31 @@
         <v/>
       </c>
       <c r="BE52" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y52&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y52&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF52" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB52&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB52&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG52" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA52&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA52&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH52" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z52&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z52&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI52" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ52" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK52" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6123,27 +6123,27 @@
         <v/>
       </c>
       <c r="AU53" s="7" t="str">
+        <f>IF(Y53&lt;&gt;"","Pileus: "&amp;Y53&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV53" s="7" t="str">
+        <f>IF(AB53&lt;&gt;"","Context: "&amp;AB53&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW53" s="7" t="str">
+        <f>IF(AA53&lt;&gt;"","Lamellae: "&amp;AA53&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX53" s="7" t="str">
+        <f>IF(Z53&lt;&gt;"","Stipe: "&amp;Z53&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY53" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV53" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW53" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX53" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY53" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ53" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA53" s="6" t="str">
@@ -6159,31 +6159,31 @@
         <v/>
       </c>
       <c r="BE53" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y53&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y53&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF53" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB53&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB53&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG53" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA53&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA53&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH53" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z53&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z53&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI53" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ53" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK53" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6221,27 +6221,27 @@
         <v/>
       </c>
       <c r="AU54" s="7" t="str">
+        <f>IF(Y54&lt;&gt;"","Pileus: "&amp;Y54&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV54" s="7" t="str">
+        <f>IF(AB54&lt;&gt;"","Context: "&amp;AB54&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW54" s="7" t="str">
+        <f>IF(AA54&lt;&gt;"","Lamellae: "&amp;AA54&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX54" s="7" t="str">
+        <f>IF(Z54&lt;&gt;"","Stipe: "&amp;Z54&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY54" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV54" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW54" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX54" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY54" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ54" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA54" s="6" t="str">
@@ -6257,31 +6257,31 @@
         <v/>
       </c>
       <c r="BE54" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y54&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y54&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF54" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB54&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB54&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG54" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA54&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA54&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH54" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z54&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z54&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI54" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ54" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK54" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6319,27 +6319,27 @@
         <v/>
       </c>
       <c r="AU55" s="7" t="str">
+        <f>IF(Y55&lt;&gt;"","Pileus: "&amp;Y55&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV55" s="7" t="str">
+        <f>IF(AB55&lt;&gt;"","Context: "&amp;AB55&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW55" s="7" t="str">
+        <f>IF(AA55&lt;&gt;"","Lamellae: "&amp;AA55&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX55" s="7" t="str">
+        <f>IF(Z55&lt;&gt;"","Stipe: "&amp;Z55&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY55" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV55" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW55" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX55" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY55" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ55" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA55" s="6" t="str">
@@ -6355,31 +6355,31 @@
         <v/>
       </c>
       <c r="BE55" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y55&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y55&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF55" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB55&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB55&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG55" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA55&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA55&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH55" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z55&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z55&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI55" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ55" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK55" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6417,27 +6417,27 @@
         <v/>
       </c>
       <c r="AU56" s="7" t="str">
+        <f>IF(Y56&lt;&gt;"","Pileus: "&amp;Y56&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV56" s="7" t="str">
+        <f>IF(AB56&lt;&gt;"","Context: "&amp;AB56&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW56" s="7" t="str">
+        <f>IF(AA56&lt;&gt;"","Lamellae: "&amp;AA56&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX56" s="7" t="str">
+        <f>IF(Z56&lt;&gt;"","Stipe: "&amp;Z56&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY56" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV56" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW56" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX56" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY56" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ56" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA56" s="6" t="str">
@@ -6453,31 +6453,31 @@
         <v/>
       </c>
       <c r="BE56" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y56&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y56&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF56" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB56&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB56&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG56" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA56&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA56&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH56" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z56&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z56&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI56" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ56" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK56" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6515,27 +6515,27 @@
         <v/>
       </c>
       <c r="AU57" s="7" t="str">
+        <f>IF(Y57&lt;&gt;"","Pileus: "&amp;Y57&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV57" s="7" t="str">
+        <f>IF(AB57&lt;&gt;"","Context: "&amp;AB57&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW57" s="7" t="str">
+        <f>IF(AA57&lt;&gt;"","Lamellae: "&amp;AA57&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX57" s="7" t="str">
+        <f>IF(Z57&lt;&gt;"","Stipe: "&amp;Z57&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY57" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV57" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW57" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX57" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY57" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ57" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA57" s="6" t="str">
@@ -6551,31 +6551,31 @@
         <v/>
       </c>
       <c r="BE57" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y57&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y57&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF57" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB57&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB57&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG57" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA57&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA57&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH57" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z57&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z57&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI57" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ57" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK57" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6613,27 +6613,27 @@
         <v/>
       </c>
       <c r="AU58" s="7" t="str">
+        <f>IF(Y58&lt;&gt;"","Pileus: "&amp;Y58&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV58" s="7" t="str">
+        <f>IF(AB58&lt;&gt;"","Context: "&amp;AB58&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW58" s="7" t="str">
+        <f>IF(AA58&lt;&gt;"","Lamellae: "&amp;AA58&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX58" s="7" t="str">
+        <f>IF(Z58&lt;&gt;"","Stipe: "&amp;Z58&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY58" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV58" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW58" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX58" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY58" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ58" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA58" s="6" t="str">
@@ -6649,31 +6649,31 @@
         <v/>
       </c>
       <c r="BE58" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y58&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y58&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF58" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB58&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB58&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG58" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA58&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA58&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH58" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z58&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z58&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI58" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ58" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK58" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6711,27 +6711,27 @@
         <v/>
       </c>
       <c r="AU59" s="7" t="str">
+        <f>IF(Y59&lt;&gt;"","Pileus: "&amp;Y59&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV59" s="7" t="str">
+        <f>IF(AB59&lt;&gt;"","Context: "&amp;AB59&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW59" s="7" t="str">
+        <f>IF(AA59&lt;&gt;"","Lamellae: "&amp;AA59&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX59" s="7" t="str">
+        <f>IF(Z59&lt;&gt;"","Stipe: "&amp;Z59&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY59" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV59" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW59" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX59" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY59" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ59" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA59" s="6" t="str">
@@ -6747,31 +6747,31 @@
         <v/>
       </c>
       <c r="BE59" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y59&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y59&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF59" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB59&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB59&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG59" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA59&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA59&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH59" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z59&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z59&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI59" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ59" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK59" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6809,27 +6809,27 @@
         <v/>
       </c>
       <c r="AU60" s="7" t="str">
+        <f>IF(Y60&lt;&gt;"","Pileus: "&amp;Y60&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV60" s="7" t="str">
+        <f>IF(AB60&lt;&gt;"","Context: "&amp;AB60&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW60" s="7" t="str">
+        <f>IF(AA60&lt;&gt;"","Lamellae: "&amp;AA60&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX60" s="7" t="str">
+        <f>IF(Z60&lt;&gt;"","Stipe: "&amp;Z60&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY60" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV60" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW60" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX60" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY60" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ60" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA60" s="6" t="str">
@@ -6845,31 +6845,31 @@
         <v/>
       </c>
       <c r="BE60" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y60&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y60&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF60" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB60&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB60&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG60" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA60&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA60&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH60" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z60&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z60&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI60" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ60" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK60" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6907,27 +6907,27 @@
         <v/>
       </c>
       <c r="AU61" s="7" t="str">
+        <f>IF(Y61&lt;&gt;"","Pileus: "&amp;Y61&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV61" s="7" t="str">
+        <f>IF(AB61&lt;&gt;"","Context: "&amp;AB61&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW61" s="7" t="str">
+        <f>IF(AA61&lt;&gt;"","Lamellae: "&amp;AA61&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX61" s="7" t="str">
+        <f>IF(Z61&lt;&gt;"","Stipe: "&amp;Z61&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY61" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV61" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW61" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX61" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY61" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ61" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA61" s="6" t="str">
@@ -6943,31 +6943,31 @@
         <v/>
       </c>
       <c r="BE61" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y61&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y61&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF61" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB61&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB61&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG61" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA61&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA61&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH61" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z61&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z61&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI61" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ61" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK61" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7005,27 +7005,27 @@
         <v/>
       </c>
       <c r="AU62" s="7" t="str">
+        <f>IF(Y62&lt;&gt;"","Pileus: "&amp;Y62&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV62" s="7" t="str">
+        <f>IF(AB62&lt;&gt;"","Context: "&amp;AB62&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW62" s="7" t="str">
+        <f>IF(AA62&lt;&gt;"","Lamellae: "&amp;AA62&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX62" s="7" t="str">
+        <f>IF(Z62&lt;&gt;"","Stipe: "&amp;Z62&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY62" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV62" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW62" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX62" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY62" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ62" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA62" s="6" t="str">
@@ -7041,31 +7041,31 @@
         <v/>
       </c>
       <c r="BE62" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y62&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y62&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF62" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB62&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB62&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG62" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA62&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA62&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH62" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z62&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z62&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI62" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ62" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK62" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7103,27 +7103,27 @@
         <v/>
       </c>
       <c r="AU63" s="7" t="str">
+        <f>IF(Y63&lt;&gt;"","Pileus: "&amp;Y63&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV63" s="7" t="str">
+        <f>IF(AB63&lt;&gt;"","Context: "&amp;AB63&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW63" s="7" t="str">
+        <f>IF(AA63&lt;&gt;"","Lamellae: "&amp;AA63&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX63" s="7" t="str">
+        <f>IF(Z63&lt;&gt;"","Stipe: "&amp;Z63&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY63" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV63" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW63" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX63" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY63" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ63" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA63" s="6" t="str">
@@ -7139,31 +7139,31 @@
         <v/>
       </c>
       <c r="BE63" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y63&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y63&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF63" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB63&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB63&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG63" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA63&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA63&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH63" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z63&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z63&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI63" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ63" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK63" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7201,27 +7201,27 @@
         <v/>
       </c>
       <c r="AU64" s="7" t="str">
+        <f>IF(Y64&lt;&gt;"","Pileus: "&amp;Y64&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV64" s="7" t="str">
+        <f>IF(AB64&lt;&gt;"","Context: "&amp;AB64&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW64" s="7" t="str">
+        <f>IF(AA64&lt;&gt;"","Lamellae: "&amp;AA64&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX64" s="7" t="str">
+        <f>IF(Z64&lt;&gt;"","Stipe: "&amp;Z64&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY64" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV64" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW64" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX64" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY64" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ64" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA64" s="6" t="str">
@@ -7237,31 +7237,31 @@
         <v/>
       </c>
       <c r="BE64" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y64&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y64&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF64" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB64&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB64&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG64" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA64&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA64&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH64" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z64&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z64&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI64" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ64" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK64" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7299,27 +7299,27 @@
         <v/>
       </c>
       <c r="AU65" s="7" t="str">
+        <f>IF(Y65&lt;&gt;"","Pileus: "&amp;Y65&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV65" s="7" t="str">
+        <f>IF(AB65&lt;&gt;"","Context: "&amp;AB65&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW65" s="7" t="str">
+        <f>IF(AA65&lt;&gt;"","Lamellae: "&amp;AA65&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX65" s="7" t="str">
+        <f>IF(Z65&lt;&gt;"","Stipe: "&amp;Z65&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY65" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV65" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW65" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX65" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY65" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ65" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA65" s="6" t="str">
@@ -7335,31 +7335,31 @@
         <v/>
       </c>
       <c r="BE65" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y65&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y65&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF65" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB65&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB65&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG65" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA65&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA65&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH65" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z65&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z65&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI65" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ65" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK65" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7397,27 +7397,27 @@
         <v/>
       </c>
       <c r="AU66" s="7" t="str">
+        <f>IF(Y66&lt;&gt;"","Pileus: "&amp;Y66&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV66" s="7" t="str">
+        <f>IF(AB66&lt;&gt;"","Context: "&amp;AB66&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW66" s="7" t="str">
+        <f>IF(AA66&lt;&gt;"","Lamellae: "&amp;AA66&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX66" s="7" t="str">
+        <f>IF(Z66&lt;&gt;"","Stipe: "&amp;Z66&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY66" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV66" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW66" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX66" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY66" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ66" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA66" s="6" t="str">
@@ -7433,31 +7433,31 @@
         <v/>
       </c>
       <c r="BE66" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y66&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y66&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF66" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB66&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB66&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG66" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA66&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA66&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH66" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z66&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z66&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI66" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ66" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK66" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7495,27 +7495,27 @@
         <v/>
       </c>
       <c r="AU67" s="7" t="str">
+        <f>IF(Y67&lt;&gt;"","Pileus: "&amp;Y67&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AV67" s="7" t="str">
+        <f>IF(AB67&lt;&gt;"","Context: "&amp;AB67&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AW67" s="7" t="str">
+        <f>IF(AA67&lt;&gt;"","Lamellae: "&amp;AA67&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AX67" s="7" t="str">
+        <f>IF(Z67&lt;&gt;"","Stipe: "&amp;Z67&amp;". ","")</f>
+        <v/>
+      </c>
+      <c r="AY67" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AV67" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AW67" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX67" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AY67" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="AZ67" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BA67" s="6" t="str">
@@ -7531,31 +7531,31 @@
         <v/>
       </c>
       <c r="BE67" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(Y67&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y67&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF67" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB67&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB67&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG67" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(AA67&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA67&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH67" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Z67&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z67&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI67" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ67" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK67" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -7565,11 +7565,11 @@
         <v/>
       </c>
       <c r="AL68" t="str">
-        <f t="shared" ref="AL68:AL101" si="16">TRIM(AZ68)</f>
+        <f t="shared" ref="AL68:AL101" si="8">TRIM(AZ68)</f>
         <v/>
       </c>
       <c r="AM68" t="str">
-        <f t="shared" ref="AM68:AM101" si="17">IF(BK68&lt;&gt;"","{"&amp;BK68&amp;"}","")</f>
+        <f t="shared" ref="AM68:AM101" si="9">IF(BK68&lt;&gt;"","{"&amp;BK68&amp;"}","")</f>
         <v/>
       </c>
       <c r="AP68" s="6" t="str">
@@ -7593,27 +7593,27 @@
         <v/>
       </c>
       <c r="AU68" s="7" t="str">
-        <f t="shared" ref="AU68:AU101" si="18">IF(Y68&lt;&gt;"","Pileus: "&amp;Y68&amp;". ","")</f>
+        <f>IF(Y68&lt;&gt;"","Pileus: "&amp;Y68&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV68" s="7" t="str">
-        <f t="shared" ref="AV68:AV101" si="19">IF(Z68&lt;&gt;"","Context: "&amp;Z68&amp;". ","")</f>
+        <f>IF(AB68&lt;&gt;"","Context: "&amp;AB68&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW68" s="7" t="str">
-        <f t="shared" ref="AW68:AW101" si="20">IF(AA68&lt;&gt;"","Lamellae: "&amp;AA68&amp;". ","")</f>
+        <f>IF(AA68&lt;&gt;"","Lamellae: "&amp;AA68&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX68" s="7" t="str">
-        <f t="shared" ref="AX68:AX101" si="21">IF(AB68&lt;&gt;"","Stipe: "&amp;AB68&amp;". ","")</f>
+        <f>IF(Z68&lt;&gt;"","Stipe: "&amp;Z68&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY68" s="7" t="str">
-        <f t="shared" ref="AY68:AY101" si="22">IF(AC68&lt;&gt;"","Microscopic Analysis: "&amp;AC68&amp;". ","")</f>
+        <f t="shared" ref="AY68:AY101" si="10">IF(AC68&lt;&gt;"","Microscopic Analysis: "&amp;AC68&amp;". ","")</f>
         <v/>
       </c>
       <c r="AZ68" s="6" t="str">
-        <f t="shared" ref="AZ68:AZ99" si="23">AP68&amp;AQ68&amp;AR68&amp;AS68&amp;AU68&amp;AV68&amp;AW68&amp;AX68&amp;AY68</f>
+        <f t="shared" ref="AZ68:AZ99" si="11">AP68&amp;AQ68&amp;AR68&amp;AS68&amp;AU68&amp;AV68&amp;AW68&amp;AX68&amp;AY68</f>
         <v/>
       </c>
       <c r="BA68" s="6" t="str">
@@ -7629,31 +7629,31 @@
         <v/>
       </c>
       <c r="BE68" s="6" t="str">
-        <f t="shared" ref="BE68:BE101" si="24">IF(Y68&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y68&amp;"'","")</f>
+        <f>IF(Y68&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y68&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF68" s="6" t="str">
-        <f t="shared" ref="BF68:BF101" si="25">IF(Z68&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z68&amp;"'","")</f>
+        <f>IF(AB68&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB68&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG68" s="6" t="str">
-        <f t="shared" ref="BG68:BG101" si="26">IF(AA68&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA68&amp;"'","")</f>
+        <f>IF(AA68&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA68&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH68" s="6" t="str">
-        <f t="shared" ref="BH68:BH101" si="27">IF(AB68&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB68&amp;"'","")</f>
+        <f>IF(Z68&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z68&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI68" s="6" t="str">
-        <f t="shared" ref="BI68:BI101" si="28">IF(AC68&lt;&gt;"","'Habit' : "&amp;"'"&amp;AC68&amp;"'","")</f>
+        <f t="shared" ref="BI68:BI101" si="12">IF(AC68&lt;&gt;"","'Habit' : "&amp;"'"&amp;AC68&amp;"'","")</f>
         <v/>
       </c>
       <c r="BJ68" s="6" t="str">
-        <f t="shared" ref="BJ68:BJ101" si="29">BA68&amp;BB68&amp;BC68&amp;BE68&amp;BF68&amp;BG68&amp;BH68&amp;BI68</f>
+        <f t="shared" ref="BJ68:BJ101" si="13">BA68&amp;BB68&amp;BC68&amp;BE68&amp;BF68&amp;BG68&amp;BH68&amp;BI68</f>
         <v/>
       </c>
       <c r="BK68" s="8" t="str">
-        <f t="shared" ref="BK68:BK101" si="30">SUBSTITUTE(BJ68,"''","' , '")</f>
+        <f t="shared" ref="BK68:BK101" si="14">SUBSTITUTE(BJ68,"''","' , '")</f>
         <v/>
       </c>
     </row>
@@ -7663,11 +7663,11 @@
         <v/>
       </c>
       <c r="AL69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM69" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP69" s="6" t="str">
@@ -7691,27 +7691,27 @@
         <v/>
       </c>
       <c r="AU69" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y69&lt;&gt;"","Pileus: "&amp;Y69&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV69" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB69&lt;&gt;"","Context: "&amp;AB69&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW69" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA69&lt;&gt;"","Lamellae: "&amp;AA69&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX69" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z69&lt;&gt;"","Stipe: "&amp;Z69&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY69" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ69" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA69" s="6" t="str">
@@ -7727,31 +7727,31 @@
         <v/>
       </c>
       <c r="BE69" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y69&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y69&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF69" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB69&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB69&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG69" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA69&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA69&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH69" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z69&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z69&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI69" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ69" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK69" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7761,11 +7761,11 @@
         <v/>
       </c>
       <c r="AL70" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM70" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP70" s="6" t="str">
@@ -7789,27 +7789,27 @@
         <v/>
       </c>
       <c r="AU70" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y70&lt;&gt;"","Pileus: "&amp;Y70&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV70" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB70&lt;&gt;"","Context: "&amp;AB70&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW70" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA70&lt;&gt;"","Lamellae: "&amp;AA70&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX70" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z70&lt;&gt;"","Stipe: "&amp;Z70&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY70" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ70" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA70" s="6" t="str">
@@ -7825,31 +7825,31 @@
         <v/>
       </c>
       <c r="BE70" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y70&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y70&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF70" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB70&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB70&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG70" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA70&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA70&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH70" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z70&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z70&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI70" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ70" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK70" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7859,11 +7859,11 @@
         <v/>
       </c>
       <c r="AL71" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM71" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP71" s="6" t="str">
@@ -7887,27 +7887,27 @@
         <v/>
       </c>
       <c r="AU71" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y71&lt;&gt;"","Pileus: "&amp;Y71&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV71" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB71&lt;&gt;"","Context: "&amp;AB71&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW71" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA71&lt;&gt;"","Lamellae: "&amp;AA71&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX71" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z71&lt;&gt;"","Stipe: "&amp;Z71&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY71" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ71" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA71" s="6" t="str">
@@ -7923,31 +7923,31 @@
         <v/>
       </c>
       <c r="BE71" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y71&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y71&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF71" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB71&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB71&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG71" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA71&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA71&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH71" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z71&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z71&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI71" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ71" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK71" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7957,11 +7957,11 @@
         <v/>
       </c>
       <c r="AL72" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM72" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP72" s="6" t="str">
@@ -7985,27 +7985,27 @@
         <v/>
       </c>
       <c r="AU72" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y72&lt;&gt;"","Pileus: "&amp;Y72&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV72" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB72&lt;&gt;"","Context: "&amp;AB72&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW72" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA72&lt;&gt;"","Lamellae: "&amp;AA72&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX72" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z72&lt;&gt;"","Stipe: "&amp;Z72&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY72" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ72" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA72" s="6" t="str">
@@ -8021,31 +8021,31 @@
         <v/>
       </c>
       <c r="BE72" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y72&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y72&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF72" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB72&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB72&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG72" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA72&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA72&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH72" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z72&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z72&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI72" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ72" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK72" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8055,11 +8055,11 @@
         <v/>
       </c>
       <c r="AL73" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM73" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP73" s="6" t="str">
@@ -8083,27 +8083,27 @@
         <v/>
       </c>
       <c r="AU73" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y73&lt;&gt;"","Pileus: "&amp;Y73&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV73" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB73&lt;&gt;"","Context: "&amp;AB73&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW73" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA73&lt;&gt;"","Lamellae: "&amp;AA73&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX73" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z73&lt;&gt;"","Stipe: "&amp;Z73&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY73" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ73" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA73" s="6" t="str">
@@ -8119,31 +8119,31 @@
         <v/>
       </c>
       <c r="BE73" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y73&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y73&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF73" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB73&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB73&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG73" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA73&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA73&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH73" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z73&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z73&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI73" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ73" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK73" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8153,11 +8153,11 @@
         <v/>
       </c>
       <c r="AL74" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM74" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP74" s="6" t="str">
@@ -8181,27 +8181,27 @@
         <v/>
       </c>
       <c r="AU74" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y74&lt;&gt;"","Pileus: "&amp;Y74&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV74" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB74&lt;&gt;"","Context: "&amp;AB74&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW74" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA74&lt;&gt;"","Lamellae: "&amp;AA74&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX74" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z74&lt;&gt;"","Stipe: "&amp;Z74&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY74" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ74" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA74" s="6" t="str">
@@ -8217,31 +8217,31 @@
         <v/>
       </c>
       <c r="BE74" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y74&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y74&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF74" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB74&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB74&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG74" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA74&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA74&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH74" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z74&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z74&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI74" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ74" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK74" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8251,11 +8251,11 @@
         <v/>
       </c>
       <c r="AL75" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM75" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP75" s="6" t="str">
@@ -8279,27 +8279,27 @@
         <v/>
       </c>
       <c r="AU75" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y75&lt;&gt;"","Pileus: "&amp;Y75&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV75" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB75&lt;&gt;"","Context: "&amp;AB75&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW75" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA75&lt;&gt;"","Lamellae: "&amp;AA75&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX75" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z75&lt;&gt;"","Stipe: "&amp;Z75&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY75" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ75" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA75" s="6" t="str">
@@ -8315,31 +8315,31 @@
         <v/>
       </c>
       <c r="BE75" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y75&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y75&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF75" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB75&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB75&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG75" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA75&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA75&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH75" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z75&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z75&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI75" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ75" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK75" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8349,11 +8349,11 @@
         <v/>
       </c>
       <c r="AL76" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM76" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP76" s="6" t="str">
@@ -8377,27 +8377,27 @@
         <v/>
       </c>
       <c r="AU76" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y76&lt;&gt;"","Pileus: "&amp;Y76&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV76" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB76&lt;&gt;"","Context: "&amp;AB76&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW76" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA76&lt;&gt;"","Lamellae: "&amp;AA76&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX76" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z76&lt;&gt;"","Stipe: "&amp;Z76&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY76" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ76" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA76" s="6" t="str">
@@ -8413,31 +8413,31 @@
         <v/>
       </c>
       <c r="BE76" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y76&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y76&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF76" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB76&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB76&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG76" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA76&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA76&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH76" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z76&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z76&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI76" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ76" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK76" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8447,11 +8447,11 @@
         <v/>
       </c>
       <c r="AL77" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM77" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP77" s="6" t="str">
@@ -8475,27 +8475,27 @@
         <v/>
       </c>
       <c r="AU77" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y77&lt;&gt;"","Pileus: "&amp;Y77&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV77" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB77&lt;&gt;"","Context: "&amp;AB77&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW77" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA77&lt;&gt;"","Lamellae: "&amp;AA77&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX77" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z77&lt;&gt;"","Stipe: "&amp;Z77&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY77" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ77" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA77" s="6" t="str">
@@ -8511,31 +8511,31 @@
         <v/>
       </c>
       <c r="BE77" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y77&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y77&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF77" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB77&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB77&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG77" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA77&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA77&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH77" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z77&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z77&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI77" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ77" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK77" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8545,11 +8545,11 @@
         <v/>
       </c>
       <c r="AL78" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM78" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP78" s="6" t="str">
@@ -8573,27 +8573,27 @@
         <v/>
       </c>
       <c r="AU78" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y78&lt;&gt;"","Pileus: "&amp;Y78&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV78" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB78&lt;&gt;"","Context: "&amp;AB78&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW78" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA78&lt;&gt;"","Lamellae: "&amp;AA78&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX78" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z78&lt;&gt;"","Stipe: "&amp;Z78&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY78" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ78" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA78" s="6" t="str">
@@ -8609,31 +8609,31 @@
         <v/>
       </c>
       <c r="BE78" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y78&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y78&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF78" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB78&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB78&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG78" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA78&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA78&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH78" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z78&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z78&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI78" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ78" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK78" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8643,11 +8643,11 @@
         <v/>
       </c>
       <c r="AL79" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM79" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP79" s="6" t="str">
@@ -8671,27 +8671,27 @@
         <v/>
       </c>
       <c r="AU79" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y79&lt;&gt;"","Pileus: "&amp;Y79&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV79" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB79&lt;&gt;"","Context: "&amp;AB79&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW79" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA79&lt;&gt;"","Lamellae: "&amp;AA79&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX79" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z79&lt;&gt;"","Stipe: "&amp;Z79&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY79" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ79" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA79" s="6" t="str">
@@ -8707,31 +8707,31 @@
         <v/>
       </c>
       <c r="BE79" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y79&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y79&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF79" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB79&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB79&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG79" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA79&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA79&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH79" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z79&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z79&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI79" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ79" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK79" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8741,11 +8741,11 @@
         <v/>
       </c>
       <c r="AL80" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM80" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP80" s="6" t="str">
@@ -8769,27 +8769,27 @@
         <v/>
       </c>
       <c r="AU80" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y80&lt;&gt;"","Pileus: "&amp;Y80&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV80" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB80&lt;&gt;"","Context: "&amp;AB80&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW80" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA80&lt;&gt;"","Lamellae: "&amp;AA80&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX80" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z80&lt;&gt;"","Stipe: "&amp;Z80&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY80" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ80" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA80" s="6" t="str">
@@ -8805,31 +8805,31 @@
         <v/>
       </c>
       <c r="BE80" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y80&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y80&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF80" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB80&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB80&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG80" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA80&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA80&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH80" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z80&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z80&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI80" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ80" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK80" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8839,11 +8839,11 @@
         <v/>
       </c>
       <c r="AL81" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM81" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP81" s="6" t="str">
@@ -8867,27 +8867,27 @@
         <v/>
       </c>
       <c r="AU81" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y81&lt;&gt;"","Pileus: "&amp;Y81&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV81" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB81&lt;&gt;"","Context: "&amp;AB81&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW81" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA81&lt;&gt;"","Lamellae: "&amp;AA81&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX81" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z81&lt;&gt;"","Stipe: "&amp;Z81&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY81" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ81" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA81" s="6" t="str">
@@ -8903,31 +8903,31 @@
         <v/>
       </c>
       <c r="BE81" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y81&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y81&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF81" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB81&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB81&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG81" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA81&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA81&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH81" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z81&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z81&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI81" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ81" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK81" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8937,11 +8937,11 @@
         <v/>
       </c>
       <c r="AL82" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM82" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP82" s="6" t="str">
@@ -8965,27 +8965,27 @@
         <v/>
       </c>
       <c r="AU82" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y82&lt;&gt;"","Pileus: "&amp;Y82&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV82" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB82&lt;&gt;"","Context: "&amp;AB82&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW82" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA82&lt;&gt;"","Lamellae: "&amp;AA82&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX82" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z82&lt;&gt;"","Stipe: "&amp;Z82&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY82" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ82" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA82" s="6" t="str">
@@ -9001,31 +9001,31 @@
         <v/>
       </c>
       <c r="BE82" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y82&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y82&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF82" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB82&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB82&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG82" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA82&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA82&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH82" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z82&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z82&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI82" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ82" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK82" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9035,11 +9035,11 @@
         <v/>
       </c>
       <c r="AL83" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM83" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP83" s="6" t="str">
@@ -9063,27 +9063,27 @@
         <v/>
       </c>
       <c r="AU83" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y83&lt;&gt;"","Pileus: "&amp;Y83&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV83" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB83&lt;&gt;"","Context: "&amp;AB83&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW83" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA83&lt;&gt;"","Lamellae: "&amp;AA83&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX83" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z83&lt;&gt;"","Stipe: "&amp;Z83&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY83" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ83" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA83" s="6" t="str">
@@ -9099,31 +9099,31 @@
         <v/>
       </c>
       <c r="BE83" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y83&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y83&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF83" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB83&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB83&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG83" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA83&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA83&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH83" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z83&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z83&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI83" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ83" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK83" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9133,11 +9133,11 @@
         <v/>
       </c>
       <c r="AL84" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM84" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP84" s="6" t="str">
@@ -9161,27 +9161,27 @@
         <v/>
       </c>
       <c r="AU84" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y84&lt;&gt;"","Pileus: "&amp;Y84&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV84" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB84&lt;&gt;"","Context: "&amp;AB84&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW84" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA84&lt;&gt;"","Lamellae: "&amp;AA84&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX84" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z84&lt;&gt;"","Stipe: "&amp;Z84&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY84" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ84" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA84" s="6" t="str">
@@ -9197,31 +9197,31 @@
         <v/>
       </c>
       <c r="BE84" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y84&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y84&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF84" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB84&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB84&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG84" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA84&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA84&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH84" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z84&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z84&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI84" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ84" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK84" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9231,11 +9231,11 @@
         <v/>
       </c>
       <c r="AL85" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP85" s="6" t="str">
@@ -9259,27 +9259,27 @@
         <v/>
       </c>
       <c r="AU85" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y85&lt;&gt;"","Pileus: "&amp;Y85&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV85" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB85&lt;&gt;"","Context: "&amp;AB85&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW85" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA85&lt;&gt;"","Lamellae: "&amp;AA85&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX85" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z85&lt;&gt;"","Stipe: "&amp;Z85&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY85" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ85" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA85" s="6" t="str">
@@ -9295,31 +9295,31 @@
         <v/>
       </c>
       <c r="BE85" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y85&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y85&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF85" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB85&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB85&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG85" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA85&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA85&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH85" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z85&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z85&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI85" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ85" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK85" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9329,11 +9329,11 @@
         <v/>
       </c>
       <c r="AL86" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM86" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP86" s="6" t="str">
@@ -9357,27 +9357,27 @@
         <v/>
       </c>
       <c r="AU86" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y86&lt;&gt;"","Pileus: "&amp;Y86&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV86" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB86&lt;&gt;"","Context: "&amp;AB86&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW86" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA86&lt;&gt;"","Lamellae: "&amp;AA86&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX86" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z86&lt;&gt;"","Stipe: "&amp;Z86&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY86" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ86" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA86" s="6" t="str">
@@ -9393,31 +9393,31 @@
         <v/>
       </c>
       <c r="BE86" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y86&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y86&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF86" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB86&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB86&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG86" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA86&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA86&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH86" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z86&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z86&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI86" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ86" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK86" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9427,11 +9427,11 @@
         <v/>
       </c>
       <c r="AL87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP87" s="6" t="str">
@@ -9455,27 +9455,27 @@
         <v/>
       </c>
       <c r="AU87" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y87&lt;&gt;"","Pileus: "&amp;Y87&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV87" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB87&lt;&gt;"","Context: "&amp;AB87&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW87" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA87&lt;&gt;"","Lamellae: "&amp;AA87&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX87" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z87&lt;&gt;"","Stipe: "&amp;Z87&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY87" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ87" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA87" s="6" t="str">
@@ -9491,31 +9491,31 @@
         <v/>
       </c>
       <c r="BE87" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y87&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y87&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF87" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB87&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB87&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG87" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA87&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA87&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH87" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z87&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z87&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI87" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ87" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK87" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9525,11 +9525,11 @@
         <v/>
       </c>
       <c r="AL88" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM88" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP88" s="6" t="str">
@@ -9553,27 +9553,27 @@
         <v/>
       </c>
       <c r="AU88" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y88&lt;&gt;"","Pileus: "&amp;Y88&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV88" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB88&lt;&gt;"","Context: "&amp;AB88&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW88" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA88&lt;&gt;"","Lamellae: "&amp;AA88&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX88" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z88&lt;&gt;"","Stipe: "&amp;Z88&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY88" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ88" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA88" s="6" t="str">
@@ -9589,31 +9589,31 @@
         <v/>
       </c>
       <c r="BE88" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y88&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y88&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF88" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB88&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB88&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG88" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA88&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA88&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH88" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z88&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z88&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI88" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ88" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK88" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9623,11 +9623,11 @@
         <v/>
       </c>
       <c r="AL89" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM89" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP89" s="6" t="str">
@@ -9651,27 +9651,27 @@
         <v/>
       </c>
       <c r="AU89" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y89&lt;&gt;"","Pileus: "&amp;Y89&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV89" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB89&lt;&gt;"","Context: "&amp;AB89&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW89" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA89&lt;&gt;"","Lamellae: "&amp;AA89&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX89" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z89&lt;&gt;"","Stipe: "&amp;Z89&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY89" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ89" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA89" s="6" t="str">
@@ -9687,31 +9687,31 @@
         <v/>
       </c>
       <c r="BE89" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y89&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y89&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF89" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB89&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB89&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG89" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA89&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA89&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH89" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z89&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z89&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI89" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ89" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK89" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9721,11 +9721,11 @@
         <v/>
       </c>
       <c r="AL90" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM90" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP90" s="6" t="str">
@@ -9749,27 +9749,27 @@
         <v/>
       </c>
       <c r="AU90" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y90&lt;&gt;"","Pileus: "&amp;Y90&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV90" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB90&lt;&gt;"","Context: "&amp;AB90&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW90" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA90&lt;&gt;"","Lamellae: "&amp;AA90&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX90" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z90&lt;&gt;"","Stipe: "&amp;Z90&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY90" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ90" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA90" s="6" t="str">
@@ -9785,31 +9785,31 @@
         <v/>
       </c>
       <c r="BE90" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y90&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y90&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF90" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB90&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB90&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG90" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA90&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA90&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH90" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z90&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z90&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI90" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ90" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK90" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9819,11 +9819,11 @@
         <v/>
       </c>
       <c r="AL91" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM91" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP91" s="6" t="str">
@@ -9847,27 +9847,27 @@
         <v/>
       </c>
       <c r="AU91" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y91&lt;&gt;"","Pileus: "&amp;Y91&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV91" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB91&lt;&gt;"","Context: "&amp;AB91&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW91" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA91&lt;&gt;"","Lamellae: "&amp;AA91&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX91" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z91&lt;&gt;"","Stipe: "&amp;Z91&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY91" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ91" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA91" s="6" t="str">
@@ -9883,31 +9883,31 @@
         <v/>
       </c>
       <c r="BE91" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y91&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y91&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF91" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB91&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB91&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG91" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA91&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA91&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH91" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z91&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z91&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI91" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ91" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK91" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9917,11 +9917,11 @@
         <v/>
       </c>
       <c r="AL92" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM92" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP92" s="6" t="str">
@@ -9945,27 +9945,27 @@
         <v/>
       </c>
       <c r="AU92" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y92&lt;&gt;"","Pileus: "&amp;Y92&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV92" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB92&lt;&gt;"","Context: "&amp;AB92&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW92" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA92&lt;&gt;"","Lamellae: "&amp;AA92&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX92" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z92&lt;&gt;"","Stipe: "&amp;Z92&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY92" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ92" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA92" s="6" t="str">
@@ -9981,31 +9981,31 @@
         <v/>
       </c>
       <c r="BE92" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y92&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y92&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF92" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB92&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB92&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG92" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA92&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA92&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH92" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z92&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z92&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI92" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ92" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK92" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10015,11 +10015,11 @@
         <v/>
       </c>
       <c r="AL93" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM93" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP93" s="6" t="str">
@@ -10043,27 +10043,27 @@
         <v/>
       </c>
       <c r="AU93" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y93&lt;&gt;"","Pileus: "&amp;Y93&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV93" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB93&lt;&gt;"","Context: "&amp;AB93&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW93" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA93&lt;&gt;"","Lamellae: "&amp;AA93&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX93" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z93&lt;&gt;"","Stipe: "&amp;Z93&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY93" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ93" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA93" s="6" t="str">
@@ -10079,31 +10079,31 @@
         <v/>
       </c>
       <c r="BE93" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y93&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y93&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF93" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB93&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB93&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG93" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA93&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA93&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH93" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z93&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z93&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI93" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ93" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK93" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10113,11 +10113,11 @@
         <v/>
       </c>
       <c r="AL94" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM94" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP94" s="6" t="str">
@@ -10141,27 +10141,27 @@
         <v/>
       </c>
       <c r="AU94" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y94&lt;&gt;"","Pileus: "&amp;Y94&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV94" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB94&lt;&gt;"","Context: "&amp;AB94&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW94" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA94&lt;&gt;"","Lamellae: "&amp;AA94&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX94" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z94&lt;&gt;"","Stipe: "&amp;Z94&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY94" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ94" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA94" s="6" t="str">
@@ -10177,31 +10177,31 @@
         <v/>
       </c>
       <c r="BE94" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y94&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y94&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF94" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB94&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB94&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG94" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA94&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA94&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH94" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z94&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z94&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI94" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ94" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK94" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10211,11 +10211,11 @@
         <v/>
       </c>
       <c r="AL95" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM95" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP95" s="6" t="str">
@@ -10239,27 +10239,27 @@
         <v/>
       </c>
       <c r="AU95" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y95&lt;&gt;"","Pileus: "&amp;Y95&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV95" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB95&lt;&gt;"","Context: "&amp;AB95&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW95" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA95&lt;&gt;"","Lamellae: "&amp;AA95&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX95" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z95&lt;&gt;"","Stipe: "&amp;Z95&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY95" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ95" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA95" s="6" t="str">
@@ -10275,31 +10275,31 @@
         <v/>
       </c>
       <c r="BE95" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y95&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y95&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF95" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB95&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB95&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG95" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA95&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA95&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH95" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z95&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z95&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI95" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ95" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK95" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10309,11 +10309,11 @@
         <v/>
       </c>
       <c r="AL96" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM96" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP96" s="6" t="str">
@@ -10337,27 +10337,27 @@
         <v/>
       </c>
       <c r="AU96" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y96&lt;&gt;"","Pileus: "&amp;Y96&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV96" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB96&lt;&gt;"","Context: "&amp;AB96&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW96" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA96&lt;&gt;"","Lamellae: "&amp;AA96&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX96" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z96&lt;&gt;"","Stipe: "&amp;Z96&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY96" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ96" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA96" s="6" t="str">
@@ -10373,31 +10373,31 @@
         <v/>
       </c>
       <c r="BE96" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y96&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y96&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF96" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB96&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB96&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG96" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA96&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA96&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH96" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z96&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z96&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI96" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ96" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK96" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10407,11 +10407,11 @@
         <v/>
       </c>
       <c r="AL97" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM97" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP97" s="6" t="str">
@@ -10435,27 +10435,27 @@
         <v/>
       </c>
       <c r="AU97" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y97&lt;&gt;"","Pileus: "&amp;Y97&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV97" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB97&lt;&gt;"","Context: "&amp;AB97&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW97" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA97&lt;&gt;"","Lamellae: "&amp;AA97&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX97" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z97&lt;&gt;"","Stipe: "&amp;Z97&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY97" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ97" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA97" s="6" t="str">
@@ -10471,31 +10471,31 @@
         <v/>
       </c>
       <c r="BE97" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y97&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y97&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF97" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB97&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB97&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG97" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA97&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA97&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH97" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z97&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z97&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI97" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ97" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK97" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10505,11 +10505,11 @@
         <v/>
       </c>
       <c r="AL98" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM98" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP98" s="6" t="str">
@@ -10533,27 +10533,27 @@
         <v/>
       </c>
       <c r="AU98" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y98&lt;&gt;"","Pileus: "&amp;Y98&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV98" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB98&lt;&gt;"","Context: "&amp;AB98&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW98" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA98&lt;&gt;"","Lamellae: "&amp;AA98&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX98" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z98&lt;&gt;"","Stipe: "&amp;Z98&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY98" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ98" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA98" s="6" t="str">
@@ -10569,31 +10569,31 @@
         <v/>
       </c>
       <c r="BE98" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y98&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y98&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF98" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB98&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB98&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG98" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA98&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA98&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH98" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z98&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z98&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI98" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ98" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK98" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10603,11 +10603,11 @@
         <v/>
       </c>
       <c r="AL99" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM99" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP99" s="6" t="str">
@@ -10631,27 +10631,27 @@
         <v/>
       </c>
       <c r="AU99" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y99&lt;&gt;"","Pileus: "&amp;Y99&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV99" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB99&lt;&gt;"","Context: "&amp;AB99&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW99" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA99&lt;&gt;"","Lamellae: "&amp;AA99&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX99" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z99&lt;&gt;"","Stipe: "&amp;Z99&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY99" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ99" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA99" s="6" t="str">
@@ -10667,31 +10667,31 @@
         <v/>
       </c>
       <c r="BE99" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y99&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y99&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF99" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB99&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB99&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG99" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA99&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA99&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH99" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z99&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z99&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI99" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ99" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK99" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10701,11 +10701,11 @@
         <v/>
       </c>
       <c r="AL100" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM100" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP100" s="6" t="str">
@@ -10729,27 +10729,27 @@
         <v/>
       </c>
       <c r="AU100" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y100&lt;&gt;"","Pileus: "&amp;Y100&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV100" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB100&lt;&gt;"","Context: "&amp;AB100&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW100" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA100&lt;&gt;"","Lamellae: "&amp;AA100&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX100" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z100&lt;&gt;"","Stipe: "&amp;Z100&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY100" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ100" s="6" t="str">
-        <f t="shared" ref="AZ100:AZ131" si="31">AP100&amp;AQ100&amp;AR100&amp;AS100&amp;AU100&amp;AV100&amp;AW100&amp;AX100&amp;AY100</f>
+        <f t="shared" ref="AZ100:AZ131" si="15">AP100&amp;AQ100&amp;AR100&amp;AS100&amp;AU100&amp;AV100&amp;AW100&amp;AX100&amp;AY100</f>
         <v/>
       </c>
       <c r="BA100" s="6" t="str">
@@ -10765,31 +10765,31 @@
         <v/>
       </c>
       <c r="BE100" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y100&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y100&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF100" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB100&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB100&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG100" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA100&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA100&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH100" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z100&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z100&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI100" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ100" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK100" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10799,11 +10799,11 @@
         <v/>
       </c>
       <c r="AL101" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM101" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP101" s="6" t="str">
@@ -10827,27 +10827,27 @@
         <v/>
       </c>
       <c r="AU101" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(Y101&lt;&gt;"","Pileus: "&amp;Y101&amp;". ","")</f>
         <v/>
       </c>
       <c r="AV101" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(AB101&lt;&gt;"","Context: "&amp;AB101&amp;". ","")</f>
         <v/>
       </c>
       <c r="AW101" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(AA101&lt;&gt;"","Lamellae: "&amp;AA101&amp;". ","")</f>
         <v/>
       </c>
       <c r="AX101" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(Z101&lt;&gt;"","Stipe: "&amp;Z101&amp;". ","")</f>
         <v/>
       </c>
       <c r="AY101" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ101" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BA101" s="6" t="str">
@@ -10863,31 +10863,31 @@
         <v/>
       </c>
       <c r="BE101" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(Y101&lt;&gt;"","'Habit' : "&amp;"'"&amp;Y101&amp;"'","")</f>
         <v/>
       </c>
       <c r="BF101" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(AB101&lt;&gt;"","'Habit' : "&amp;"'"&amp;AB101&amp;"'","")</f>
         <v/>
       </c>
       <c r="BG101" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(AA101&lt;&gt;"","'Habit' : "&amp;"'"&amp;AA101&amp;"'","")</f>
         <v/>
       </c>
       <c r="BH101" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(Z101&lt;&gt;"","'Habit' : "&amp;"'"&amp;Z101&amp;"'","")</f>
         <v/>
       </c>
       <c r="BI101" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ101" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BK101" s="8" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
